--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4400</v>
       </c>
-      <c r="F8" s="3">
-        <v>12500</v>
-      </c>
       <c r="G8" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="H8" s="3">
+        <v>25100</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +893,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12900</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="F12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G12" s="3">
         <v>8800</v>
       </c>
-      <c r="G12" s="3">
-        <v>13000</v>
-      </c>
       <c r="H12" s="3">
-        <v>10700</v>
+        <v>13100</v>
       </c>
       <c r="I12" s="3">
-        <v>7800</v>
+        <v>10800</v>
       </c>
       <c r="J12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K12" s="3">
         <v>7000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15900</v>
+        <v>16900</v>
       </c>
       <c r="E17" s="3">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="F17" s="3">
-        <v>11300</v>
+        <v>15200</v>
       </c>
       <c r="G17" s="3">
-        <v>14400</v>
+        <v>11400</v>
       </c>
       <c r="H17" s="3">
-        <v>13700</v>
+        <v>14500</v>
       </c>
       <c r="I17" s="3">
-        <v>10200</v>
+        <v>13800</v>
       </c>
       <c r="J17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13600</v>
+        <v>-12600</v>
       </c>
       <c r="E18" s="3">
-        <v>-10600</v>
+        <v>-13700</v>
       </c>
       <c r="F18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
-        <v>10500</v>
-      </c>
       <c r="H18" s="3">
-        <v>-13300</v>
+        <v>10600</v>
       </c>
       <c r="I18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1700</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
       <c r="G20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
-        <v>300</v>
-      </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-11600</v>
+        <v>-14000</v>
       </c>
       <c r="E21" s="3">
-        <v>-11000</v>
+        <v>-11700</v>
       </c>
       <c r="F21" s="3">
-        <v>2400</v>
+        <v>-11100</v>
       </c>
       <c r="G21" s="3">
-        <v>9900</v>
+        <v>2500</v>
       </c>
       <c r="H21" s="3">
-        <v>-12900</v>
+        <v>10000</v>
       </c>
       <c r="I21" s="3">
-        <v>-8400</v>
+        <v>-13000</v>
       </c>
       <c r="J21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-8800</v>
       </c>
       <c r="N21" s="3">
         <v>-8800</v>
       </c>
       <c r="O21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="P21" s="3">
         <v>-6300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1290,72 +1329,78 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E23" s="3">
-        <v>-11300</v>
+        <v>-12100</v>
       </c>
       <c r="F23" s="3">
-        <v>2000</v>
+        <v>-11400</v>
       </c>
       <c r="G23" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H23" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1393,13 +1438,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E26" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="F26" s="3">
-        <v>2000</v>
+        <v>-11500</v>
       </c>
       <c r="G26" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H26" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I26" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E27" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="F27" s="3">
-        <v>2000</v>
+        <v>-11500</v>
       </c>
       <c r="G27" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H27" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1700</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-300</v>
-      </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E33" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="F33" s="3">
-        <v>2000</v>
+        <v>-11500</v>
       </c>
       <c r="G33" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H33" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E35" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="F35" s="3">
-        <v>2000</v>
+        <v>-11500</v>
       </c>
       <c r="G35" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H35" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,69 +2052,73 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65900</v>
+        <v>105500</v>
       </c>
       <c r="E41" s="3">
-        <v>70300</v>
+        <v>66500</v>
       </c>
       <c r="F41" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="G41" s="3">
-        <v>104100</v>
+        <v>69900</v>
       </c>
       <c r="H41" s="3">
-        <v>40700</v>
+        <v>105000</v>
       </c>
       <c r="I41" s="3">
-        <v>52100</v>
+        <v>41100</v>
       </c>
       <c r="J41" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K41" s="3">
         <v>60800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>18100</v>
+        <v>9900</v>
       </c>
       <c r="E42" s="3">
-        <v>26100</v>
+        <v>18300</v>
       </c>
       <c r="F42" s="3">
-        <v>35200</v>
+        <v>26300</v>
       </c>
       <c r="G42" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+        <v>35500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2037,75 +2126,81 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>9500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
-        <v>9100</v>
-      </c>
       <c r="G43" s="3">
-        <v>1600</v>
+        <v>9200</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
       </c>
       <c r="I43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -2114,13 +2209,13 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
+        <v>400</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
@@ -2135,130 +2230,139 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
       </c>
       <c r="L45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>87300</v>
+        <v>117300</v>
       </c>
       <c r="E46" s="3">
-        <v>101600</v>
+        <v>88100</v>
       </c>
       <c r="F46" s="3">
-        <v>114500</v>
+        <v>102400</v>
       </c>
       <c r="G46" s="3">
-        <v>121700</v>
+        <v>115600</v>
       </c>
       <c r="H46" s="3">
-        <v>44100</v>
+        <v>122800</v>
       </c>
       <c r="I46" s="3">
-        <v>55600</v>
+        <v>44500</v>
       </c>
       <c r="J46" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K46" s="3">
         <v>63900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>47100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>58500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>56200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E47" s="3">
         <v>3600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4200</v>
       </c>
       <c r="F47" s="3">
         <v>4300</v>
       </c>
       <c r="G47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H47" s="3">
         <v>4200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J47" s="3">
         <v>8300</v>
       </c>
-      <c r="I47" s="3">
-        <v>8300</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7800</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>5</v>
@@ -2275,43 +2379,46 @@
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="E48" s="3">
         <v>2900</v>
       </c>
       <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
       </c>
       <c r="J48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1000</v>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2441,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>93900</v>
+        <v>124400</v>
       </c>
       <c r="E54" s="3">
-        <v>108800</v>
+        <v>94800</v>
       </c>
       <c r="F54" s="3">
-        <v>121200</v>
+        <v>109800</v>
       </c>
       <c r="G54" s="3">
-        <v>127600</v>
+        <v>122200</v>
       </c>
       <c r="H54" s="3">
-        <v>53900</v>
+        <v>128700</v>
       </c>
       <c r="I54" s="3">
-        <v>65300</v>
+        <v>54300</v>
       </c>
       <c r="J54" s="3">
+        <v>65900</v>
+      </c>
+      <c r="K54" s="3">
         <v>73100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>48400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>59700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>57200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,66 +2748,70 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F57" s="3">
         <v>8400</v>
       </c>
-      <c r="E57" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6900</v>
-      </c>
       <c r="G57" s="3">
-        <v>10300</v>
+        <v>7000</v>
       </c>
       <c r="H57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="F58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G58" s="3">
         <v>3800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3400</v>
       </c>
       <c r="H58" s="3">
         <v>3400</v>
@@ -2690,174 +2823,186 @@
         <v>3400</v>
       </c>
       <c r="K58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20000</v>
+        <v>24200</v>
       </c>
       <c r="E59" s="3">
-        <v>16600</v>
+        <v>20200</v>
       </c>
       <c r="F59" s="3">
-        <v>25500</v>
+        <v>16700</v>
       </c>
       <c r="G59" s="3">
-        <v>26700</v>
+        <v>25700</v>
       </c>
       <c r="H59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>32000</v>
+        <v>39000</v>
       </c>
       <c r="E60" s="3">
-        <v>29200</v>
+        <v>32300</v>
       </c>
       <c r="F60" s="3">
-        <v>36200</v>
+        <v>29400</v>
       </c>
       <c r="G60" s="3">
-        <v>40500</v>
+        <v>36500</v>
       </c>
       <c r="H60" s="3">
-        <v>12100</v>
+        <v>40800</v>
       </c>
       <c r="I60" s="3">
-        <v>10400</v>
+        <v>12200</v>
       </c>
       <c r="J60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37000</v>
+        <v>42000</v>
       </c>
       <c r="E62" s="3">
-        <v>43000</v>
+        <v>37300</v>
       </c>
       <c r="F62" s="3">
-        <v>36800</v>
+        <v>43300</v>
       </c>
       <c r="G62" s="3">
-        <v>41200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+        <v>37100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>41500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2874,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69500</v>
+        <v>81600</v>
       </c>
       <c r="E66" s="3">
-        <v>72800</v>
+        <v>70100</v>
       </c>
       <c r="F66" s="3">
-        <v>74300</v>
+        <v>73400</v>
       </c>
       <c r="G66" s="3">
-        <v>83500</v>
+        <v>75000</v>
       </c>
       <c r="H66" s="3">
-        <v>14500</v>
+        <v>84200</v>
       </c>
       <c r="I66" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>13500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>13000</v>
       </c>
       <c r="L66" s="3">
         <v>13000</v>
       </c>
       <c r="M66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="N66" s="3">
         <v>14700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21500</v>
+        <v>39800</v>
       </c>
       <c r="E72" s="3">
-        <v>32500</v>
+        <v>21600</v>
       </c>
       <c r="F72" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>43600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J72" s="3">
         <v>43200</v>
       </c>
-      <c r="G72" s="3">
-        <v>40500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>30300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>42800</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>37400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>55300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24400</v>
+        <v>42800</v>
       </c>
       <c r="E76" s="3">
-        <v>36100</v>
+        <v>24600</v>
       </c>
       <c r="F76" s="3">
-        <v>46800</v>
+        <v>36400</v>
       </c>
       <c r="G76" s="3">
-        <v>44100</v>
+        <v>47200</v>
       </c>
       <c r="H76" s="3">
-        <v>39400</v>
+        <v>44400</v>
       </c>
       <c r="I76" s="3">
-        <v>51800</v>
+        <v>39700</v>
       </c>
       <c r="J76" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K76" s="3">
         <v>59600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12000</v>
+        <v>-14400</v>
       </c>
       <c r="E81" s="3">
-        <v>-11400</v>
+        <v>-12100</v>
       </c>
       <c r="F81" s="3">
-        <v>2000</v>
+        <v>-11500</v>
       </c>
       <c r="G81" s="3">
-        <v>9600</v>
+        <v>2100</v>
       </c>
       <c r="H81" s="3">
-        <v>-13200</v>
+        <v>9700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8800</v>
+        <v>-13300</v>
       </c>
       <c r="J81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3825,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -3643,7 +3841,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12800</v>
+        <v>1700</v>
       </c>
       <c r="E89" s="3">
-        <v>-6100</v>
+        <v>-12900</v>
       </c>
       <c r="F89" s="3">
-        <v>-14700</v>
+        <v>-6200</v>
       </c>
       <c r="G89" s="3">
-        <v>81600</v>
+        <v>-14800</v>
       </c>
       <c r="H89" s="3">
-        <v>-10700</v>
+        <v>82400</v>
       </c>
       <c r="I89" s="3">
-        <v>-9000</v>
+        <v>-10800</v>
       </c>
       <c r="J89" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,25 +4173,26 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -3981,16 +4201,16 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,25 +4312,28 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>8700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8000</v>
       </c>
-      <c r="F94" s="3">
-        <v>-19400</v>
-      </c>
       <c r="G94" s="3">
-        <v>-16600</v>
+        <v>-19600</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-16800</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -4113,25 +4342,28 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>9300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K100" s="3">
+        <v>24900</v>
+      </c>
+      <c r="L100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O100" s="3">
+        <v>19300</v>
+      </c>
+      <c r="P100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>24900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>19300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
-        <v>-34900</v>
-      </c>
       <c r="G102" s="3">
-        <v>63400</v>
+        <v>-35200</v>
       </c>
       <c r="H102" s="3">
-        <v>-11300</v>
+        <v>64000</v>
       </c>
       <c r="I102" s="3">
-        <v>-8700</v>
+        <v>-11400</v>
       </c>
       <c r="J102" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K102" s="3">
         <v>17000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="F8" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G8" s="3">
-        <v>12600</v>
+        <v>2500</v>
       </c>
       <c r="H8" s="3">
-        <v>25100</v>
+        <v>4700</v>
       </c>
       <c r="I8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G12" s="3">
         <v>13900</v>
       </c>
-      <c r="E12" s="3">
-        <v>13000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>12800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8800</v>
-      </c>
       <c r="H12" s="3">
-        <v>13100</v>
+        <v>13700</v>
       </c>
       <c r="I12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K12" s="3">
         <v>10800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,31 +1022,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="E17" s="3">
-        <v>16000</v>
+        <v>17800</v>
       </c>
       <c r="F17" s="3">
-        <v>15200</v>
+        <v>18100</v>
       </c>
       <c r="G17" s="3">
-        <v>11400</v>
+        <v>17100</v>
       </c>
       <c r="H17" s="3">
-        <v>14500</v>
+        <v>16200</v>
       </c>
       <c r="I17" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-12600</v>
+        <v>-13300</v>
       </c>
       <c r="E18" s="3">
-        <v>-13700</v>
+        <v>-11700</v>
       </c>
       <c r="F18" s="3">
-        <v>-10700</v>
+        <v>-13500</v>
       </c>
       <c r="G18" s="3">
-        <v>1200</v>
+        <v>-14600</v>
       </c>
       <c r="H18" s="3">
-        <v>10600</v>
+        <v>-11500</v>
       </c>
       <c r="I18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
-        <v>400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="E21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>10000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-11700</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1332,7 +1412,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1341,74 +1421,86 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E23" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F23" s="3">
-        <v>-11400</v>
+        <v>-15400</v>
       </c>
       <c r="G23" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H23" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-8900</v>
       </c>
       <c r="O23" s="3">
         <v>-9100</v>
       </c>
       <c r="P23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1441,13 +1533,19 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E26" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F26" s="3">
-        <v>-11500</v>
+        <v>-15400</v>
       </c>
       <c r="G26" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H26" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-8900</v>
       </c>
       <c r="O26" s="3">
         <v>-9100</v>
       </c>
       <c r="P26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E27" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F27" s="3">
-        <v>-11500</v>
+        <v>-15400</v>
       </c>
       <c r="G27" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H27" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-8900</v>
       </c>
       <c r="O27" s="3">
         <v>-9100</v>
       </c>
       <c r="P27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>400</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>700</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E33" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F33" s="3">
-        <v>-11500</v>
+        <v>-15400</v>
       </c>
       <c r="G33" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H33" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-8900</v>
       </c>
       <c r="O33" s="3">
         <v>-9100</v>
       </c>
       <c r="P33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E35" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F35" s="3">
-        <v>-11500</v>
+        <v>-15400</v>
       </c>
       <c r="G35" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H35" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-8900</v>
       </c>
       <c r="O35" s="3">
         <v>-9100</v>
       </c>
       <c r="P35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,154 +2225,174 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105500</v>
+        <v>100100</v>
       </c>
       <c r="E41" s="3">
-        <v>66500</v>
+        <v>97900</v>
       </c>
       <c r="F41" s="3">
-        <v>70900</v>
+        <v>112700</v>
       </c>
       <c r="G41" s="3">
-        <v>69900</v>
+        <v>71000</v>
       </c>
       <c r="H41" s="3">
-        <v>105000</v>
+        <v>75700</v>
       </c>
       <c r="I41" s="3">
+        <v>74600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K41" s="3">
         <v>41100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>52500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>60800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>44700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>37400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>49900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>57500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>41600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="E42" s="3">
-        <v>18300</v>
+        <v>6500</v>
       </c>
       <c r="F42" s="3">
-        <v>26300</v>
+        <v>10500</v>
       </c>
       <c r="G42" s="3">
-        <v>35500</v>
+        <v>19600</v>
       </c>
       <c r="H42" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+        <v>28100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>16500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>9500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>5500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2600</v>
       </c>
       <c r="Q43" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>400</v>
@@ -2212,7 +2404,7 @@
         <v>400</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
@@ -2221,7 +2413,7 @@
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -2233,143 +2425,161 @@
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1700</v>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F45" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>900</v>
+      </c>
+      <c r="N45" s="3">
+        <v>900</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>600</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117300</v>
+        <v>112500</v>
       </c>
       <c r="E46" s="3">
-        <v>88100</v>
+        <v>107300</v>
       </c>
       <c r="F46" s="3">
-        <v>102400</v>
+        <v>125300</v>
       </c>
       <c r="G46" s="3">
-        <v>115600</v>
+        <v>94100</v>
       </c>
       <c r="H46" s="3">
-        <v>122800</v>
+        <v>109400</v>
       </c>
       <c r="I46" s="3">
+        <v>123400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>131200</v>
+      </c>
+      <c r="K46" s="3">
         <v>44500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>56100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>63900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>47100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>49600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>58500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>65900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>56200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E47" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="F47" s="3">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="G47" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="H47" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K47" s="3">
         <v>8400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2382,72 +2592,84 @@
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="E48" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="G48" s="3">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="3">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="I48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1200</v>
       </c>
       <c r="M48" s="3">
         <v>1300</v>
       </c>
       <c r="N48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
         <v>1100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1000</v>
       </c>
       <c r="Q48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>124400</v>
+        <v>119600</v>
       </c>
       <c r="E54" s="3">
-        <v>94800</v>
+        <v>114800</v>
       </c>
       <c r="F54" s="3">
-        <v>109800</v>
+        <v>132900</v>
       </c>
       <c r="G54" s="3">
-        <v>122200</v>
+        <v>101200</v>
       </c>
       <c r="H54" s="3">
-        <v>128700</v>
+        <v>117200</v>
       </c>
       <c r="I54" s="3">
+        <v>130500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>137400</v>
+      </c>
+      <c r="K54" s="3">
         <v>54300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>65900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>73100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>48400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>50900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>59700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>67000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>57200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,266 +3009,298 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11800</v>
+        <v>7800</v>
       </c>
       <c r="E57" s="3">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="3">
-        <v>8400</v>
+        <v>12600</v>
       </c>
       <c r="G57" s="3">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="H57" s="3">
-        <v>10400</v>
+        <v>8900</v>
       </c>
       <c r="I57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>3700</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
+        <v>3100</v>
       </c>
       <c r="G58" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H58" s="3">
-        <v>3400</v>
+        <v>4600</v>
       </c>
       <c r="I58" s="3">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
       </c>
       <c r="L58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24200</v>
+        <v>28900</v>
       </c>
       <c r="E59" s="3">
-        <v>20200</v>
+        <v>29100</v>
       </c>
       <c r="F59" s="3">
-        <v>16700</v>
+        <v>25900</v>
       </c>
       <c r="G59" s="3">
-        <v>25700</v>
+        <v>21600</v>
       </c>
       <c r="H59" s="3">
-        <v>27000</v>
+        <v>17900</v>
       </c>
       <c r="I59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>31400</v>
+      </c>
+      <c r="I60" s="3">
         <v>39000</v>
       </c>
-      <c r="E60" s="3">
-        <v>32300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>29400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>36500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>40800</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K60" s="3">
         <v>12200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
       </c>
       <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>1400</v>
-      </c>
       <c r="H61" s="3">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>42000</v>
+        <v>32900</v>
       </c>
       <c r="E62" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="F62" s="3">
-        <v>43300</v>
+        <v>44900</v>
       </c>
       <c r="G62" s="3">
-        <v>37100</v>
+        <v>39800</v>
       </c>
       <c r="H62" s="3">
-        <v>41500</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+        <v>46300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>44400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3022,17 +3314,23 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>81600</v>
+        <v>71700</v>
       </c>
       <c r="E66" s="3">
-        <v>70100</v>
+        <v>77900</v>
       </c>
       <c r="F66" s="3">
-        <v>73400</v>
+        <v>87200</v>
       </c>
       <c r="G66" s="3">
-        <v>75000</v>
+        <v>74900</v>
       </c>
       <c r="H66" s="3">
-        <v>84200</v>
+        <v>78400</v>
       </c>
       <c r="I66" s="3">
+        <v>80100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K66" s="3">
         <v>14600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39800</v>
+        <v>44600</v>
       </c>
       <c r="E72" s="3">
-        <v>21600</v>
+        <v>33600</v>
       </c>
       <c r="F72" s="3">
-        <v>32800</v>
+        <v>42500</v>
       </c>
       <c r="G72" s="3">
-        <v>43600</v>
+        <v>23100</v>
       </c>
       <c r="H72" s="3">
-        <v>40900</v>
+        <v>35000</v>
       </c>
       <c r="I72" s="3">
+        <v>46600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K72" s="3">
         <v>30600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>43200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>51100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>34900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>37400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>44500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>55300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>45100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42800</v>
+        <v>47900</v>
       </c>
       <c r="E76" s="3">
-        <v>24600</v>
+        <v>36900</v>
       </c>
       <c r="F76" s="3">
-        <v>36400</v>
+        <v>45700</v>
       </c>
       <c r="G76" s="3">
-        <v>47200</v>
+        <v>26300</v>
       </c>
       <c r="H76" s="3">
-        <v>44400</v>
+        <v>38900</v>
       </c>
       <c r="I76" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>47500</v>
+      </c>
+      <c r="K76" s="3">
         <v>39700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>52300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>59600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>35400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>37900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>45000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>55900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>45500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="E81" s="3">
-        <v>-12100</v>
+        <v>-9800</v>
       </c>
       <c r="F81" s="3">
-        <v>-11500</v>
+        <v>-15400</v>
       </c>
       <c r="G81" s="3">
-        <v>2100</v>
+        <v>-12900</v>
       </c>
       <c r="H81" s="3">
-        <v>9700</v>
+        <v>-12200</v>
       </c>
       <c r="I81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-8900</v>
       </c>
       <c r="O81" s="3">
         <v>-9100</v>
       </c>
       <c r="P81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,19 +4233,19 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1700</v>
+        <v>-17700</v>
       </c>
       <c r="E89" s="3">
-        <v>-12900</v>
+        <v>-19600</v>
       </c>
       <c r="F89" s="3">
-        <v>-6200</v>
+        <v>1800</v>
       </c>
       <c r="G89" s="3">
-        <v>-14800</v>
+        <v>-13800</v>
       </c>
       <c r="H89" s="3">
-        <v>82400</v>
+        <v>-6600</v>
       </c>
       <c r="I89" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-5500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-6600</v>
       </c>
       <c r="O89" s="3">
         <v>-8500</v>
       </c>
       <c r="P89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="R89" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7600</v>
+        <v>-3400</v>
       </c>
       <c r="E94" s="3">
-        <v>8700</v>
+        <v>4400</v>
       </c>
       <c r="F94" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G94" s="3">
-        <v>-19600</v>
+        <v>9300</v>
       </c>
       <c r="H94" s="3">
-        <v>-16800</v>
+        <v>8600</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-20900</v>
       </c>
       <c r="J94" s="3">
-        <v>-200</v>
+        <v>-17900</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31100</v>
+        <v>24300</v>
       </c>
       <c r="E100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-700</v>
-      </c>
       <c r="I100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>24900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>19300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>700</v>
+      </c>
+      <c r="H101" s="3">
         <v>-500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-900</v>
       </c>
       <c r="I101" s="3">
         <v>300</v>
       </c>
       <c r="J101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>300</v>
+      </c>
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39000</v>
+        <v>2200</v>
       </c>
       <c r="E102" s="3">
-        <v>-4400</v>
+        <v>-14700</v>
       </c>
       <c r="F102" s="3">
-        <v>1000</v>
+        <v>41700</v>
       </c>
       <c r="G102" s="3">
-        <v>-35200</v>
+        <v>-4700</v>
       </c>
       <c r="H102" s="3">
-        <v>64000</v>
+        <v>1100</v>
       </c>
       <c r="I102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>68300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>17000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>7300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-12500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3400</v>
+        <v>12600</v>
       </c>
       <c r="E8" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="F8" s="3">
-        <v>4600</v>
+        <v>6100</v>
       </c>
       <c r="G8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
-        <v>4700</v>
-      </c>
       <c r="I8" s="3">
-        <v>13500</v>
+        <v>4800</v>
       </c>
       <c r="J8" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K8" s="3">
         <v>26900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>600</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>600</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I12" s="3">
         <v>13800</v>
       </c>
-      <c r="E12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>13700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>9400</v>
-      </c>
       <c r="J12" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,17 +1045,20 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16700</v>
+        <v>16100</v>
       </c>
       <c r="E17" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="F17" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G17" s="3">
-        <v>17100</v>
+        <v>18300</v>
       </c>
       <c r="H17" s="3">
-        <v>16200</v>
+        <v>17300</v>
       </c>
       <c r="I17" s="3">
-        <v>12200</v>
+        <v>16400</v>
       </c>
       <c r="J17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K17" s="3">
         <v>15500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13300</v>
+        <v>-3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-11700</v>
+        <v>-13500</v>
       </c>
       <c r="F18" s="3">
-        <v>-13500</v>
+        <v>-11900</v>
       </c>
       <c r="G18" s="3">
-        <v>-14600</v>
+        <v>-13600</v>
       </c>
       <c r="H18" s="3">
-        <v>-11500</v>
+        <v>-14800</v>
       </c>
       <c r="I18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14100</v>
+        <v>-6800</v>
       </c>
       <c r="E21" s="3">
-        <v>-9400</v>
+        <v>-14200</v>
       </c>
       <c r="F21" s="3">
-        <v>-15000</v>
+        <v>-9500</v>
       </c>
       <c r="G21" s="3">
-        <v>-12500</v>
+        <v>-15100</v>
       </c>
       <c r="H21" s="3">
-        <v>-11800</v>
+        <v>-12600</v>
       </c>
       <c r="I21" s="3">
-        <v>2600</v>
+        <v>-12000</v>
       </c>
       <c r="J21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K21" s="3">
         <v>10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-8800</v>
       </c>
       <c r="Q21" s="3">
         <v>-8800</v>
       </c>
       <c r="R21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="S21" s="3">
         <v>-6300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1418,92 +1458,98 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F23" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G23" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H23" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I23" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1539,13 +1585,16 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F26" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G26" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H26" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I26" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E27" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F27" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G27" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H27" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E33" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F33" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G33" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H33" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I33" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E35" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F35" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G35" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H35" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I35" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100100</v>
+        <v>107200</v>
       </c>
       <c r="E41" s="3">
-        <v>97900</v>
+        <v>101200</v>
       </c>
       <c r="F41" s="3">
-        <v>112700</v>
+        <v>99000</v>
       </c>
       <c r="G41" s="3">
-        <v>71000</v>
+        <v>113900</v>
       </c>
       <c r="H41" s="3">
-        <v>75700</v>
+        <v>71800</v>
       </c>
       <c r="I41" s="3">
-        <v>74600</v>
+        <v>76500</v>
       </c>
       <c r="J41" s="3">
+        <v>75500</v>
+      </c>
+      <c r="K41" s="3">
         <v>112200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>60800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>49900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H42" s="3">
+        <v>19800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>9500</v>
       </c>
-      <c r="E42" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F42" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>19600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>28100</v>
-      </c>
-      <c r="I42" s="3">
-        <v>37900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>16500</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>9500</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,7 +2491,7 @@
         <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>400</v>
@@ -2410,13 +2506,13 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
+        <v>400</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
@@ -2431,158 +2527,167 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
+      <c r="D45" s="3">
+        <v>1300</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
-        <v>3500</v>
-      </c>
       <c r="I45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112500</v>
+        <v>121300</v>
       </c>
       <c r="E46" s="3">
-        <v>107300</v>
+        <v>113700</v>
       </c>
       <c r="F46" s="3">
-        <v>125300</v>
+        <v>108600</v>
       </c>
       <c r="G46" s="3">
-        <v>94100</v>
+        <v>126700</v>
       </c>
       <c r="H46" s="3">
-        <v>109400</v>
+        <v>95100</v>
       </c>
       <c r="I46" s="3">
-        <v>123400</v>
+        <v>110600</v>
       </c>
       <c r="J46" s="3">
+        <v>124800</v>
+      </c>
+      <c r="K46" s="3">
         <v>131200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>44500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>63900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>47100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>49600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>58500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>65900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>56200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4600</v>
       </c>
       <c r="I47" s="3">
         <v>4600</v>
       </c>
       <c r="J47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2598,52 +2703,55 @@
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3000</v>
       </c>
       <c r="H48" s="3">
         <v>3100</v>
       </c>
       <c r="I48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1400</v>
       </c>
       <c r="L48" s="3">
         <v>1400</v>
       </c>
       <c r="M48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1000</v>
       </c>
       <c r="R48" s="3">
         <v>1000</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2774,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2672,7 +2783,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>119600</v>
+        <v>129100</v>
       </c>
       <c r="E54" s="3">
-        <v>114800</v>
+        <v>121000</v>
       </c>
       <c r="F54" s="3">
-        <v>132900</v>
+        <v>116100</v>
       </c>
       <c r="G54" s="3">
-        <v>101200</v>
+        <v>134400</v>
       </c>
       <c r="H54" s="3">
-        <v>117200</v>
+        <v>102300</v>
       </c>
       <c r="I54" s="3">
-        <v>130500</v>
+        <v>118600</v>
       </c>
       <c r="J54" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K54" s="3">
         <v>137400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>54300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>65900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>48400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>59700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>57200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,87 +3141,91 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7800</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>10000</v>
+        <v>7900</v>
       </c>
       <c r="F57" s="3">
-        <v>12600</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I57" s="3">
         <v>9000</v>
       </c>
-      <c r="H57" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O57" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="T57" s="3">
         <v>7400</v>
       </c>
-      <c r="J57" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>6600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>6500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>6200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7400</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
-        <v>3100</v>
-      </c>
       <c r="G58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
-        <v>4600</v>
-      </c>
       <c r="I58" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="J58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3400</v>
       </c>
       <c r="L58" s="3">
         <v>3400</v>
@@ -3100,211 +3234,223 @@
         <v>3400</v>
       </c>
       <c r="N58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28900</v>
+        <v>42100</v>
       </c>
       <c r="E59" s="3">
-        <v>29100</v>
+        <v>29200</v>
       </c>
       <c r="F59" s="3">
-        <v>25900</v>
+        <v>29500</v>
       </c>
       <c r="G59" s="3">
-        <v>21600</v>
+        <v>26200</v>
       </c>
       <c r="H59" s="3">
-        <v>17900</v>
+        <v>21800</v>
       </c>
       <c r="I59" s="3">
-        <v>27500</v>
+        <v>18100</v>
       </c>
       <c r="J59" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K59" s="3">
         <v>28800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38400</v>
+        <v>54000</v>
       </c>
       <c r="E60" s="3">
-        <v>41400</v>
+        <v>38900</v>
       </c>
       <c r="F60" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="G60" s="3">
-        <v>34500</v>
+        <v>42100</v>
       </c>
       <c r="H60" s="3">
-        <v>31400</v>
+        <v>34900</v>
       </c>
       <c r="I60" s="3">
-        <v>39000</v>
+        <v>31800</v>
       </c>
       <c r="J60" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K60" s="3">
         <v>43600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32900</v>
+        <v>18200</v>
       </c>
       <c r="E62" s="3">
-        <v>36000</v>
+        <v>33300</v>
       </c>
       <c r="F62" s="3">
-        <v>44900</v>
+        <v>36400</v>
       </c>
       <c r="G62" s="3">
-        <v>39800</v>
+        <v>45400</v>
       </c>
       <c r="H62" s="3">
-        <v>46300</v>
+        <v>40300</v>
       </c>
       <c r="I62" s="3">
-        <v>39600</v>
+        <v>46800</v>
       </c>
       <c r="J62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="K62" s="3">
         <v>44400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3320,8 +3466,8 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71700</v>
+        <v>72900</v>
       </c>
       <c r="E66" s="3">
-        <v>77900</v>
+        <v>72500</v>
       </c>
       <c r="F66" s="3">
-        <v>87200</v>
+        <v>78700</v>
       </c>
       <c r="G66" s="3">
-        <v>74900</v>
+        <v>88200</v>
       </c>
       <c r="H66" s="3">
-        <v>78400</v>
+        <v>75700</v>
       </c>
       <c r="I66" s="3">
-        <v>80100</v>
+        <v>79300</v>
       </c>
       <c r="J66" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K66" s="3">
         <v>90000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>13000</v>
       </c>
       <c r="O66" s="3">
         <v>13000</v>
       </c>
       <c r="P66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Q66" s="3">
         <v>14700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44600</v>
+        <v>53000</v>
       </c>
       <c r="E72" s="3">
-        <v>33600</v>
+        <v>45100</v>
       </c>
       <c r="F72" s="3">
-        <v>42500</v>
+        <v>33900</v>
       </c>
       <c r="G72" s="3">
-        <v>23100</v>
+        <v>43000</v>
       </c>
       <c r="H72" s="3">
-        <v>35000</v>
+        <v>23400</v>
       </c>
       <c r="I72" s="3">
-        <v>46600</v>
+        <v>35400</v>
       </c>
       <c r="J72" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K72" s="3">
         <v>43700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>55300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>45100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47900</v>
+        <v>56200</v>
       </c>
       <c r="E76" s="3">
-        <v>36900</v>
+        <v>48400</v>
       </c>
       <c r="F76" s="3">
-        <v>45700</v>
+        <v>37300</v>
       </c>
       <c r="G76" s="3">
-        <v>26300</v>
+        <v>46300</v>
       </c>
       <c r="H76" s="3">
-        <v>38900</v>
+        <v>26600</v>
       </c>
       <c r="I76" s="3">
-        <v>50500</v>
+        <v>39300</v>
       </c>
       <c r="J76" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K76" s="3">
         <v>47500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14500</v>
+        <v>-7100</v>
       </c>
       <c r="E81" s="3">
-        <v>-9800</v>
+        <v>-14600</v>
       </c>
       <c r="F81" s="3">
-        <v>-15400</v>
+        <v>-9900</v>
       </c>
       <c r="G81" s="3">
-        <v>-12900</v>
+        <v>-15500</v>
       </c>
       <c r="H81" s="3">
-        <v>-12200</v>
+        <v>-13000</v>
       </c>
       <c r="I81" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4245,10 +4444,10 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17700</v>
+        <v>-4300</v>
       </c>
       <c r="E89" s="3">
-        <v>-19600</v>
+        <v>-17900</v>
       </c>
       <c r="F89" s="3">
-        <v>1800</v>
+        <v>-19800</v>
       </c>
       <c r="G89" s="3">
-        <v>-13800</v>
+        <v>1900</v>
       </c>
       <c r="H89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-15800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K89" s="3">
         <v>88000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,25 +4846,25 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -4652,16 +4873,16 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,34 +5002,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3400</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F94" s="3">
         <v>4400</v>
       </c>
-      <c r="F94" s="3">
-        <v>8100</v>
-      </c>
       <c r="G94" s="3">
-        <v>9300</v>
+        <v>8200</v>
       </c>
       <c r="H94" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="I94" s="3">
-        <v>-20900</v>
+        <v>8700</v>
       </c>
       <c r="J94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -4811,25 +5041,28 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24300</v>
+        <v>13800</v>
       </c>
       <c r="E100" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="F100" s="3">
-        <v>33200</v>
-      </c>
       <c r="G100" s="3">
+        <v>33600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-800</v>
       </c>
       <c r="K100" s="3">
         <v>-800</v>
       </c>
       <c r="L100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>19300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-14700</v>
-      </c>
       <c r="F102" s="3">
-        <v>41700</v>
+        <v>-14900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4700</v>
+        <v>42200</v>
       </c>
       <c r="H102" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
-        <v>-37500</v>
-      </c>
       <c r="J102" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K102" s="3">
         <v>68300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="E8" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F8" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G8" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J8" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="K8" s="3">
         <v>26900</v>
@@ -942,25 +942,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>12100</v>
+        <v>11900</v>
       </c>
       <c r="E12" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="F12" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="G12" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="H12" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="I12" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="J12" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K12" s="3">
         <v>14000</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>17000</v>
+      </c>
+      <c r="I17" s="3">
         <v>16100</v>
       </c>
-      <c r="E17" s="3">
-        <v>16900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>18000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>18300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>17300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>16400</v>
-      </c>
       <c r="J17" s="3">
-        <v>12400</v>
+        <v>12200</v>
       </c>
       <c r="K17" s="3">
         <v>15500</v>
@@ -1244,19 +1244,19 @@
         <v>-3500</v>
       </c>
       <c r="E18" s="3">
-        <v>-13500</v>
+        <v>-13200</v>
       </c>
       <c r="F18" s="3">
-        <v>-11900</v>
+        <v>-11700</v>
       </c>
       <c r="G18" s="3">
-        <v>-13600</v>
+        <v>-13400</v>
       </c>
       <c r="H18" s="3">
-        <v>-14800</v>
+        <v>-14500</v>
       </c>
       <c r="I18" s="3">
-        <v>-11600</v>
+        <v>-11400</v>
       </c>
       <c r="J18" s="3">
         <v>1300</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="E21" s="3">
-        <v>-14200</v>
+        <v>-14000</v>
       </c>
       <c r="F21" s="3">
-        <v>-9500</v>
+        <v>-9300</v>
       </c>
       <c r="G21" s="3">
-        <v>-15100</v>
+        <v>-14900</v>
       </c>
       <c r="H21" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="I21" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="J21" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K21" s="3">
         <v>10700</v>
@@ -1487,22 +1487,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E23" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F23" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G23" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H23" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I23" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J23" s="3">
         <v>2200</v>
@@ -1655,22 +1655,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E26" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F26" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G26" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H26" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J26" s="3">
         <v>2200</v>
@@ -1711,22 +1711,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E27" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F27" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G27" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H27" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I27" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J27" s="3">
         <v>2200</v>
@@ -2047,22 +2047,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E33" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F33" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G33" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H33" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J33" s="3">
         <v>2200</v>
@@ -2159,22 +2159,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E35" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F35" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G35" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H35" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J35" s="3">
         <v>2200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107200</v>
+        <v>105500</v>
       </c>
       <c r="E41" s="3">
-        <v>101200</v>
+        <v>99500</v>
       </c>
       <c r="F41" s="3">
-        <v>99000</v>
+        <v>97400</v>
       </c>
       <c r="G41" s="3">
-        <v>113900</v>
+        <v>112000</v>
       </c>
       <c r="H41" s="3">
-        <v>71800</v>
+        <v>70600</v>
       </c>
       <c r="I41" s="3">
-        <v>76500</v>
+        <v>75300</v>
       </c>
       <c r="J41" s="3">
-        <v>75500</v>
+        <v>74200</v>
       </c>
       <c r="K41" s="3">
         <v>112200</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="E42" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="F42" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G42" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="H42" s="3">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="I42" s="3">
-        <v>28400</v>
+        <v>27900</v>
       </c>
       <c r="J42" s="3">
-        <v>38300</v>
+        <v>37700</v>
       </c>
       <c r="K42" s="3">
         <v>16500</v>
@@ -2432,7 +2432,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E43" s="3">
         <v>2400</v>
@@ -2441,16 +2441,16 @@
         <v>2600</v>
       </c>
       <c r="G43" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J43" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="K43" s="3">
         <v>1700</v>
@@ -2497,7 +2497,7 @@
         <v>400</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2559,7 +2559,7 @@
         <v>1800</v>
       </c>
       <c r="I45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>121300</v>
+        <v>119300</v>
       </c>
       <c r="E46" s="3">
-        <v>113700</v>
+        <v>111800</v>
       </c>
       <c r="F46" s="3">
-        <v>108600</v>
+        <v>106800</v>
       </c>
       <c r="G46" s="3">
-        <v>126700</v>
+        <v>124600</v>
       </c>
       <c r="H46" s="3">
-        <v>95100</v>
+        <v>93600</v>
       </c>
       <c r="I46" s="3">
-        <v>110600</v>
+        <v>108800</v>
       </c>
       <c r="J46" s="3">
-        <v>124800</v>
+        <v>122700</v>
       </c>
       <c r="K46" s="3">
         <v>131200</v>
@@ -2656,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E47" s="3">
         <v>3800</v>
@@ -2671,10 +2671,10 @@
         <v>3900</v>
       </c>
       <c r="I47" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J47" s="3">
         <v>4600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4700</v>
       </c>
       <c r="K47" s="3">
         <v>4500</v>
@@ -2712,7 +2712,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>3300</v>
@@ -2724,7 +2724,7 @@
         <v>3700</v>
       </c>
       <c r="H48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I48" s="3">
         <v>3100</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>129100</v>
+        <v>127000</v>
       </c>
       <c r="E54" s="3">
-        <v>121000</v>
+        <v>119000</v>
       </c>
       <c r="F54" s="3">
-        <v>116100</v>
+        <v>114100</v>
       </c>
       <c r="G54" s="3">
-        <v>134400</v>
+        <v>132200</v>
       </c>
       <c r="H54" s="3">
-        <v>102300</v>
+        <v>100600</v>
       </c>
       <c r="I54" s="3">
-        <v>118600</v>
+        <v>116600</v>
       </c>
       <c r="J54" s="3">
-        <v>132000</v>
+        <v>129800</v>
       </c>
       <c r="K54" s="3">
         <v>137400</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="F57" s="3">
-        <v>10100</v>
+        <v>9900</v>
       </c>
       <c r="G57" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="H57" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="I57" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="J57" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="K57" s="3">
         <v>11100</v>
@@ -3213,16 +3213,16 @@
         <v>2300</v>
       </c>
       <c r="G58" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H58" s="3">
         <v>3900</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K58" s="3">
         <v>3600</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42100</v>
+        <v>41400</v>
       </c>
       <c r="E59" s="3">
-        <v>29200</v>
+        <v>28700</v>
       </c>
       <c r="F59" s="3">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="G59" s="3">
-        <v>26200</v>
+        <v>25700</v>
       </c>
       <c r="H59" s="3">
-        <v>21800</v>
+        <v>21400</v>
       </c>
       <c r="I59" s="3">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="J59" s="3">
-        <v>27800</v>
+        <v>27300</v>
       </c>
       <c r="K59" s="3">
         <v>28800</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54000</v>
+        <v>53100</v>
       </c>
       <c r="E60" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="F60" s="3">
-        <v>41900</v>
+        <v>41200</v>
       </c>
       <c r="G60" s="3">
-        <v>42100</v>
+        <v>41400</v>
       </c>
       <c r="H60" s="3">
-        <v>34900</v>
+        <v>34300</v>
       </c>
       <c r="I60" s="3">
-        <v>31800</v>
+        <v>31300</v>
       </c>
       <c r="J60" s="3">
-        <v>39400</v>
+        <v>38700</v>
       </c>
       <c r="K60" s="3">
         <v>43600</v>
@@ -3381,7 +3381,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18200</v>
+        <v>17900</v>
       </c>
       <c r="E62" s="3">
-        <v>33300</v>
+        <v>32700</v>
       </c>
       <c r="F62" s="3">
-        <v>36400</v>
+        <v>35800</v>
       </c>
       <c r="G62" s="3">
-        <v>45400</v>
+        <v>44700</v>
       </c>
       <c r="H62" s="3">
-        <v>40300</v>
+        <v>39600</v>
       </c>
       <c r="I62" s="3">
-        <v>46800</v>
+        <v>46000</v>
       </c>
       <c r="J62" s="3">
-        <v>40100</v>
+        <v>39400</v>
       </c>
       <c r="K62" s="3">
         <v>44400</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72900</v>
+        <v>71700</v>
       </c>
       <c r="E66" s="3">
-        <v>72500</v>
+        <v>71300</v>
       </c>
       <c r="F66" s="3">
-        <v>78700</v>
+        <v>77400</v>
       </c>
       <c r="G66" s="3">
-        <v>88200</v>
+        <v>86700</v>
       </c>
       <c r="H66" s="3">
-        <v>75700</v>
+        <v>74500</v>
       </c>
       <c r="I66" s="3">
-        <v>79300</v>
+        <v>78000</v>
       </c>
       <c r="J66" s="3">
-        <v>81000</v>
+        <v>79600</v>
       </c>
       <c r="K66" s="3">
         <v>90000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>53000</v>
+        <v>52100</v>
       </c>
       <c r="E72" s="3">
-        <v>45100</v>
+        <v>44300</v>
       </c>
       <c r="F72" s="3">
-        <v>33900</v>
+        <v>33400</v>
       </c>
       <c r="G72" s="3">
-        <v>43000</v>
+        <v>42300</v>
       </c>
       <c r="H72" s="3">
-        <v>23400</v>
+        <v>23000</v>
       </c>
       <c r="I72" s="3">
-        <v>35400</v>
+        <v>34800</v>
       </c>
       <c r="J72" s="3">
-        <v>47100</v>
+        <v>46300</v>
       </c>
       <c r="K72" s="3">
         <v>43700</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56200</v>
+        <v>55300</v>
       </c>
       <c r="E76" s="3">
-        <v>48400</v>
+        <v>47600</v>
       </c>
       <c r="F76" s="3">
-        <v>37300</v>
+        <v>36700</v>
       </c>
       <c r="G76" s="3">
-        <v>46300</v>
+        <v>45500</v>
       </c>
       <c r="H76" s="3">
-        <v>26600</v>
+        <v>26200</v>
       </c>
       <c r="I76" s="3">
-        <v>39300</v>
+        <v>38600</v>
       </c>
       <c r="J76" s="3">
-        <v>51000</v>
+        <v>50200</v>
       </c>
       <c r="K76" s="3">
         <v>47500</v>
@@ -4351,22 +4351,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E81" s="3">
-        <v>-14600</v>
+        <v>-14400</v>
       </c>
       <c r="F81" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="G81" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="H81" s="3">
-        <v>-13000</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
-        <v>-12400</v>
+        <v>-12200</v>
       </c>
       <c r="J81" s="3">
         <v>2200</v>
@@ -4447,7 +4447,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="E89" s="3">
-        <v>-17900</v>
+        <v>-17600</v>
       </c>
       <c r="F89" s="3">
-        <v>-19800</v>
+        <v>-19500</v>
       </c>
       <c r="G89" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H89" s="3">
-        <v>-14000</v>
+        <v>-13700</v>
       </c>
       <c r="I89" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="J89" s="3">
-        <v>-16000</v>
+        <v>-15700</v>
       </c>
       <c r="K89" s="3">
         <v>88000</v>
@@ -5014,22 +5014,22 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F94" s="3">
         <v>4400</v>
       </c>
       <c r="G94" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H94" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I94" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="J94" s="3">
-        <v>-21100</v>
+        <v>-20800</v>
       </c>
       <c r="K94" s="3">
         <v>-17900</v>
@@ -5313,16 +5313,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="E100" s="3">
-        <v>24600</v>
+        <v>24200</v>
       </c>
       <c r="F100" s="3">
         <v>-1100</v>
       </c>
       <c r="G100" s="3">
-        <v>33600</v>
+        <v>33000</v>
       </c>
       <c r="H100" s="3">
         <v>-900</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E102" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-14900</v>
+        <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>42200</v>
+        <v>41500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="I102" s="3">
         <v>1100</v>
       </c>
       <c r="J102" s="3">
-        <v>-38000</v>
+        <v>-37300</v>
       </c>
       <c r="K102" s="3">
         <v>68300</v>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="E8" s="3">
-        <v>3400</v>
+        <v>12900</v>
       </c>
       <c r="F8" s="3">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="G8" s="3">
-        <v>4600</v>
+        <v>6200</v>
       </c>
       <c r="H8" s="3">
-        <v>2500</v>
+        <v>4800</v>
       </c>
       <c r="I8" s="3">
-        <v>4700</v>
+        <v>2600</v>
       </c>
       <c r="J8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>600</v>
       </c>
       <c r="Q8" s="3">
         <v>600</v>
       </c>
       <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11900</v>
+        <v>20500</v>
       </c>
       <c r="E12" s="3">
-        <v>13800</v>
+        <v>12400</v>
       </c>
       <c r="F12" s="3">
-        <v>13500</v>
+        <v>14300</v>
       </c>
       <c r="G12" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="H12" s="3">
-        <v>13800</v>
+        <v>15400</v>
       </c>
       <c r="I12" s="3">
-        <v>13600</v>
+        <v>14400</v>
       </c>
       <c r="J12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K12" s="3">
         <v>9400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,20 +1064,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1077,8 +1096,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15800</v>
+        <v>25000</v>
       </c>
       <c r="E17" s="3">
-        <v>16700</v>
+        <v>16500</v>
       </c>
       <c r="F17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
-        <v>18000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>17000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>16100</v>
-      </c>
       <c r="J17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3500</v>
+        <v>-13200</v>
       </c>
       <c r="E18" s="3">
-        <v>-13200</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-11700</v>
+        <v>-13800</v>
       </c>
       <c r="G18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>11300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,125 +1345,132 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>-5100</v>
       </c>
       <c r="E20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
       <c r="G20" s="3">
-        <v>-1800</v>
+        <v>2100</v>
       </c>
       <c r="H20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6600</v>
+        <v>-17900</v>
       </c>
       <c r="E21" s="3">
-        <v>-14000</v>
+        <v>-6900</v>
       </c>
       <c r="F21" s="3">
-        <v>-9300</v>
+        <v>-14600</v>
       </c>
       <c r="G21" s="3">
-        <v>-14900</v>
+        <v>-9700</v>
       </c>
       <c r="H21" s="3">
-        <v>-12400</v>
+        <v>-15500</v>
       </c>
       <c r="I21" s="3">
-        <v>-11800</v>
+        <v>-12900</v>
       </c>
       <c r="J21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-8800</v>
       </c>
       <c r="R21" s="3">
         <v>-8800</v>
       </c>
       <c r="S21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="T21" s="3">
         <v>-6300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>100</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1446,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1461,84 +1500,90 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E23" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G23" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H23" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I23" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,11 +1593,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1588,13 +1633,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E26" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F26" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G26" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H26" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I26" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E27" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F27" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G27" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H27" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I27" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>5100</v>
       </c>
       <c r="E32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G32" s="3">
-        <v>1800</v>
+        <v>-2100</v>
       </c>
       <c r="H32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E33" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F33" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G33" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H33" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I33" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E35" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F35" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G35" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H35" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I35" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>105500</v>
+        <v>179900</v>
       </c>
       <c r="E41" s="3">
-        <v>99500</v>
+        <v>109800</v>
       </c>
       <c r="F41" s="3">
-        <v>97400</v>
+        <v>103600</v>
       </c>
       <c r="G41" s="3">
-        <v>112000</v>
+        <v>101400</v>
       </c>
       <c r="H41" s="3">
-        <v>70600</v>
+        <v>116700</v>
       </c>
       <c r="I41" s="3">
-        <v>75300</v>
+        <v>73500</v>
       </c>
       <c r="J41" s="3">
+        <v>78400</v>
+      </c>
+      <c r="K41" s="3">
         <v>74200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>60800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>44700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>49900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>37700</v>
+      </c>
+      <c r="L42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>9500</v>
       </c>
-      <c r="F42" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10500</v>
-      </c>
-      <c r="H42" s="3">
-        <v>19400</v>
-      </c>
-      <c r="I42" s="3">
-        <v>27900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>37700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>16500</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>9500</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,69 +2527,72 @@
         <v>3000</v>
       </c>
       <c r="E43" s="3">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="F43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2509,13 +2604,13 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -2530,133 +2625,142 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
-        <v>3500</v>
-      </c>
       <c r="J45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Q45" s="3">
         <v>600</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119300</v>
+        <v>184700</v>
       </c>
       <c r="E46" s="3">
-        <v>111800</v>
+        <v>124200</v>
       </c>
       <c r="F46" s="3">
-        <v>106800</v>
+        <v>116500</v>
       </c>
       <c r="G46" s="3">
-        <v>124600</v>
+        <v>111200</v>
       </c>
       <c r="H46" s="3">
-        <v>93600</v>
+        <v>129700</v>
       </c>
       <c r="I46" s="3">
-        <v>108800</v>
+        <v>97400</v>
       </c>
       <c r="J46" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K46" s="3">
         <v>122700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>44500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>63900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>47100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>49600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>58500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>65900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>56200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3600</v>
+        <v>24600</v>
       </c>
       <c r="E47" s="3">
         <v>3800</v>
@@ -2665,32 +2769,32 @@
         <v>3900</v>
       </c>
       <c r="G47" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H47" s="3">
         <v>3900</v>
       </c>
       <c r="I47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L47" s="3">
         <v>4500</v>
       </c>
-      <c r="J47" s="3">
-        <v>4600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2706,55 +2810,58 @@
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E48" s="3">
-        <v>3300</v>
+        <v>4200</v>
       </c>
       <c r="F48" s="3">
         <v>3400</v>
       </c>
       <c r="G48" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1400</v>
       </c>
       <c r="M48" s="3">
         <v>1400</v>
       </c>
       <c r="N48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1000</v>
@@ -2762,13 +2869,16 @@
       <c r="T48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2777,7 +2887,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2786,7 +2896,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>127000</v>
+        <v>215300</v>
       </c>
       <c r="E54" s="3">
-        <v>119000</v>
+        <v>132200</v>
       </c>
       <c r="F54" s="3">
-        <v>114100</v>
+        <v>123900</v>
       </c>
       <c r="G54" s="3">
-        <v>132200</v>
+        <v>118800</v>
       </c>
       <c r="H54" s="3">
-        <v>100600</v>
+        <v>137600</v>
       </c>
       <c r="I54" s="3">
-        <v>116600</v>
+        <v>104800</v>
       </c>
       <c r="J54" s="3">
+        <v>121400</v>
+      </c>
+      <c r="K54" s="3">
         <v>129800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>137400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>65900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>59700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>57200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,93 +3271,97 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9600</v>
+        <v>14000</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="3">
-        <v>9900</v>
+        <v>8100</v>
       </c>
       <c r="G57" s="3">
-        <v>12600</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
-        <v>9000</v>
+        <v>13100</v>
       </c>
       <c r="I57" s="3">
-        <v>8900</v>
+        <v>9400</v>
       </c>
       <c r="J57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K57" s="3">
         <v>7400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
-        <v>2300</v>
-      </c>
       <c r="G58" s="3">
-        <v>3100</v>
+        <v>2400</v>
       </c>
       <c r="H58" s="3">
-        <v>3900</v>
+        <v>3200</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4000</v>
       </c>
       <c r="J58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3400</v>
       </c>
       <c r="M58" s="3">
         <v>3400</v>
@@ -3237,223 +3370,235 @@
         <v>3400</v>
       </c>
       <c r="O58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41400</v>
+        <v>67400</v>
       </c>
       <c r="E59" s="3">
-        <v>28700</v>
+        <v>43100</v>
       </c>
       <c r="F59" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="G59" s="3">
-        <v>25700</v>
+        <v>30200</v>
       </c>
       <c r="H59" s="3">
-        <v>21400</v>
+        <v>26800</v>
       </c>
       <c r="I59" s="3">
-        <v>17800</v>
+        <v>22300</v>
       </c>
       <c r="J59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K59" s="3">
         <v>27300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53100</v>
+        <v>82100</v>
       </c>
       <c r="E60" s="3">
-        <v>38200</v>
+        <v>55300</v>
       </c>
       <c r="F60" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="G60" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="H60" s="3">
-        <v>34300</v>
+        <v>43100</v>
       </c>
       <c r="I60" s="3">
-        <v>31300</v>
+        <v>35700</v>
       </c>
       <c r="J60" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K60" s="3">
         <v>38700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>600</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17900</v>
+        <v>44100</v>
       </c>
       <c r="E62" s="3">
-        <v>32700</v>
+        <v>18600</v>
       </c>
       <c r="F62" s="3">
-        <v>35800</v>
+        <v>34100</v>
       </c>
       <c r="G62" s="3">
-        <v>44700</v>
+        <v>37300</v>
       </c>
       <c r="H62" s="3">
-        <v>39600</v>
+        <v>46500</v>
       </c>
       <c r="I62" s="3">
-        <v>46000</v>
+        <v>41200</v>
       </c>
       <c r="J62" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K62" s="3">
         <v>39400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3469,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71700</v>
+        <v>127100</v>
       </c>
       <c r="E66" s="3">
-        <v>71300</v>
+        <v>74600</v>
       </c>
       <c r="F66" s="3">
-        <v>77400</v>
+        <v>74300</v>
       </c>
       <c r="G66" s="3">
-        <v>86700</v>
+        <v>80600</v>
       </c>
       <c r="H66" s="3">
-        <v>74500</v>
+        <v>90300</v>
       </c>
       <c r="I66" s="3">
-        <v>78000</v>
+        <v>77600</v>
       </c>
       <c r="J66" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K66" s="3">
         <v>79600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>90000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>13000</v>
       </c>
       <c r="P66" s="3">
         <v>13000</v>
       </c>
       <c r="Q66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="R66" s="3">
         <v>14700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>52100</v>
+        <v>84900</v>
       </c>
       <c r="E72" s="3">
-        <v>44300</v>
+        <v>54300</v>
       </c>
       <c r="F72" s="3">
-        <v>33400</v>
+        <v>46200</v>
       </c>
       <c r="G72" s="3">
-        <v>42300</v>
+        <v>34800</v>
       </c>
       <c r="H72" s="3">
-        <v>23000</v>
+        <v>44000</v>
       </c>
       <c r="I72" s="3">
-        <v>34800</v>
+        <v>23900</v>
       </c>
       <c r="J72" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K72" s="3">
         <v>46300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>55300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>45100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55300</v>
+        <v>88200</v>
       </c>
       <c r="E76" s="3">
-        <v>47600</v>
+        <v>57600</v>
       </c>
       <c r="F76" s="3">
-        <v>36700</v>
+        <v>49600</v>
       </c>
       <c r="G76" s="3">
+        <v>38200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>47400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>27200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>47500</v>
+      </c>
+      <c r="M76" s="3">
+        <v>39700</v>
+      </c>
+      <c r="N76" s="3">
+        <v>52300</v>
+      </c>
+      <c r="O76" s="3">
+        <v>59600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>35400</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>37900</v>
+      </c>
+      <c r="R76" s="3">
+        <v>45000</v>
+      </c>
+      <c r="S76" s="3">
+        <v>55900</v>
+      </c>
+      <c r="T76" s="3">
         <v>45500</v>
       </c>
-      <c r="H76" s="3">
-        <v>26200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>38600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>50200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>47500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>39700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>52300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>59600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>35400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>37900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>45000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>55900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>45500</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7000</v>
+        <v>-18200</v>
       </c>
       <c r="E81" s="3">
-        <v>-14400</v>
+        <v>-7300</v>
       </c>
       <c r="F81" s="3">
-        <v>-9800</v>
+        <v>-15000</v>
       </c>
       <c r="G81" s="3">
-        <v>-15300</v>
+        <v>-10200</v>
       </c>
       <c r="H81" s="3">
-        <v>-12800</v>
+        <v>-15900</v>
       </c>
       <c r="I81" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="J81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4447,10 +4645,10 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-4200</v>
+        <v>19300</v>
       </c>
       <c r="E89" s="3">
-        <v>-17600</v>
+        <v>-4400</v>
       </c>
       <c r="F89" s="3">
-        <v>-19500</v>
+        <v>-18400</v>
       </c>
       <c r="G89" s="3">
-        <v>1800</v>
+        <v>-20300</v>
       </c>
       <c r="H89" s="3">
-        <v>-13700</v>
+        <v>1900</v>
       </c>
       <c r="I89" s="3">
-        <v>-6500</v>
+        <v>-14300</v>
       </c>
       <c r="J89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-15700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>88000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,37 +5056,38 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -4876,16 +5096,16 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,37 +5231,40 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-3400</v>
-      </c>
       <c r="F94" s="3">
-        <v>4400</v>
+        <v>-3600</v>
       </c>
       <c r="G94" s="3">
-        <v>8100</v>
+        <v>4500</v>
       </c>
       <c r="H94" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="I94" s="3">
-        <v>8500</v>
+        <v>9700</v>
       </c>
       <c r="J94" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -5044,25 +5273,28 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>9300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>13600</v>
+        <v>46600</v>
       </c>
       <c r="E100" s="3">
-        <v>24200</v>
+        <v>14100</v>
       </c>
       <c r="F100" s="3">
+        <v>25200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>33000</v>
-      </c>
       <c r="H100" s="3">
+        <v>34400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-800</v>
       </c>
       <c r="L100" s="3">
         <v>-800</v>
       </c>
       <c r="M100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>19300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3200</v>
+        <v>-4900</v>
       </c>
       <c r="E101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6000</v>
+        <v>70100</v>
       </c>
       <c r="E102" s="3">
-        <v>2100</v>
+        <v>6200</v>
       </c>
       <c r="F102" s="3">
-        <v>-14700</v>
+        <v>2200</v>
       </c>
       <c r="G102" s="3">
-        <v>41500</v>
+        <v>-15300</v>
       </c>
       <c r="H102" s="3">
-        <v>-4700</v>
+        <v>43200</v>
       </c>
       <c r="I102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>68300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11900</v>
+        <v>13700</v>
       </c>
       <c r="E8" s="3">
-        <v>12900</v>
+        <v>11300</v>
       </c>
       <c r="F8" s="3">
-        <v>3600</v>
+        <v>12300</v>
       </c>
       <c r="G8" s="3">
-        <v>6200</v>
+        <v>3400</v>
       </c>
       <c r="H8" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="I8" s="3">
-        <v>2600</v>
+        <v>4600</v>
       </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>4900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>600</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20500</v>
+        <v>13300</v>
       </c>
       <c r="E12" s="3">
-        <v>12400</v>
+        <v>19500</v>
       </c>
       <c r="F12" s="3">
-        <v>14300</v>
+        <v>11800</v>
       </c>
       <c r="G12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
-        <v>15400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>14000</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,23 +1084,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25000</v>
+        <v>18400</v>
       </c>
       <c r="E17" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G17" s="3">
         <v>16500</v>
       </c>
-      <c r="F17" s="3">
-        <v>17300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>18400</v>
-      </c>
       <c r="H17" s="3">
-        <v>18700</v>
+        <v>17500</v>
       </c>
       <c r="I17" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="J17" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K17" s="3">
         <v>16800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13200</v>
+        <v>-4700</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>-12500</v>
       </c>
       <c r="F18" s="3">
-        <v>-13800</v>
+        <v>-3400</v>
       </c>
       <c r="G18" s="3">
-        <v>-12200</v>
+        <v>-13100</v>
       </c>
       <c r="H18" s="3">
-        <v>-13900</v>
+        <v>-11600</v>
       </c>
       <c r="I18" s="3">
-        <v>-15100</v>
+        <v>-13300</v>
       </c>
       <c r="J18" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,134 +1379,141 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5100</v>
+        <v>6500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3600</v>
+        <v>-4800</v>
       </c>
       <c r="F20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
-        <v>2100</v>
-      </c>
       <c r="H20" s="3">
-        <v>-1900</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>1900</v>
+        <v>-1800</v>
       </c>
       <c r="J20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-17900</v>
+        <v>2100</v>
       </c>
       <c r="E21" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-6900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>10700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-8800</v>
       </c>
       <c r="S21" s="3">
         <v>-8800</v>
       </c>
       <c r="T21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="U21" s="3">
         <v>-6300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
         <v>100</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1488,7 +1528,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1503,87 +1543,93 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18200</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F23" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G23" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H23" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J23" s="3">
         <v>-12700</v>
       </c>
       <c r="K23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,11 +1642,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1636,13 +1682,16 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18200</v>
+        <v>1600</v>
       </c>
       <c r="E26" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F26" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G26" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H26" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I26" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J26" s="3">
         <v>-12700</v>
       </c>
       <c r="K26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18200</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F27" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G27" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I27" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J27" s="3">
         <v>-12700</v>
       </c>
       <c r="K27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5100</v>
+        <v>-6500</v>
       </c>
       <c r="E32" s="3">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="F32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2100</v>
-      </c>
       <c r="H32" s="3">
-        <v>1900</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1900</v>
+        <v>1800</v>
       </c>
       <c r="J32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18200</v>
+        <v>1600</v>
       </c>
       <c r="E33" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F33" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G33" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H33" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I33" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J33" s="3">
         <v>-12700</v>
       </c>
       <c r="K33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18200</v>
+        <v>1600</v>
       </c>
       <c r="E35" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F35" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G35" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H35" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I35" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J35" s="3">
         <v>-12700</v>
       </c>
       <c r="K35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,205 +2486,215 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179900</v>
+        <v>281000</v>
       </c>
       <c r="E41" s="3">
-        <v>109800</v>
+        <v>171400</v>
       </c>
       <c r="F41" s="3">
-        <v>103600</v>
+        <v>104700</v>
       </c>
       <c r="G41" s="3">
-        <v>101400</v>
+        <v>98700</v>
       </c>
       <c r="H41" s="3">
-        <v>116700</v>
+        <v>96600</v>
       </c>
       <c r="I41" s="3">
-        <v>73500</v>
+        <v>111200</v>
       </c>
       <c r="J41" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K41" s="3">
         <v>78400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>60800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>44700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>49900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G42" s="3">
         <v>9400</v>
       </c>
-      <c r="F42" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G42" s="3">
-        <v>6700</v>
-      </c>
       <c r="H42" s="3">
-        <v>10900</v>
+        <v>6400</v>
       </c>
       <c r="I42" s="3">
-        <v>20200</v>
+        <v>10400</v>
       </c>
       <c r="J42" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K42" s="3">
         <v>29100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>9500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>5500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
       </c>
       <c r="I44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
@@ -2607,13 +2703,13 @@
         <v>400</v>
       </c>
       <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2628,176 +2724,185 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>900</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="R45" s="3">
         <v>600</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>184700</v>
+        <v>287100</v>
       </c>
       <c r="E46" s="3">
-        <v>124200</v>
+        <v>176000</v>
       </c>
       <c r="F46" s="3">
-        <v>116500</v>
+        <v>118400</v>
       </c>
       <c r="G46" s="3">
-        <v>111200</v>
+        <v>111000</v>
       </c>
       <c r="H46" s="3">
-        <v>129700</v>
+        <v>105900</v>
       </c>
       <c r="I46" s="3">
-        <v>97400</v>
+        <v>123600</v>
       </c>
       <c r="J46" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K46" s="3">
         <v>113300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>122700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>44500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>56100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>63900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>47100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>49600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>58500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>65900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24600</v>
+        <v>21900</v>
       </c>
       <c r="E47" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H47" s="3">
         <v>3800</v>
       </c>
-      <c r="F47" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>3900</v>
-      </c>
       <c r="I47" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="J47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2813,58 +2918,61 @@
       <c r="U47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3900</v>
+        <v>4900</v>
       </c>
       <c r="E48" s="3">
-        <v>4200</v>
+        <v>3700</v>
       </c>
       <c r="F48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3800</v>
-      </c>
       <c r="I48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1400</v>
       </c>
       <c r="N48" s="3">
         <v>1400</v>
       </c>
       <c r="O48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1000</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
@@ -2872,16 +2980,19 @@
       <c r="U48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -2890,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
@@ -2899,7 +3010,7 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>215300</v>
+        <v>315900</v>
       </c>
       <c r="E54" s="3">
-        <v>132200</v>
+        <v>205100</v>
       </c>
       <c r="F54" s="3">
-        <v>123900</v>
+        <v>126000</v>
       </c>
       <c r="G54" s="3">
-        <v>118800</v>
+        <v>118100</v>
       </c>
       <c r="H54" s="3">
-        <v>137600</v>
+        <v>113300</v>
       </c>
       <c r="I54" s="3">
-        <v>104800</v>
+        <v>131200</v>
       </c>
       <c r="J54" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K54" s="3">
         <v>121400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>129800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>137400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>65900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>59700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>67000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>57200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="E57" s="3">
-        <v>10000</v>
+        <v>13300</v>
       </c>
       <c r="F57" s="3">
-        <v>8100</v>
+        <v>9500</v>
       </c>
       <c r="G57" s="3">
-        <v>10300</v>
+        <v>7700</v>
       </c>
       <c r="H57" s="3">
-        <v>13100</v>
+        <v>9800</v>
       </c>
       <c r="I57" s="3">
-        <v>9400</v>
+        <v>12500</v>
       </c>
       <c r="J57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,31 +3474,31 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="I58" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
-        <v>4800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4000</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3400</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
@@ -3373,235 +3507,247 @@
         <v>3400</v>
       </c>
       <c r="P58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67400</v>
+        <v>59400</v>
       </c>
       <c r="E59" s="3">
-        <v>43100</v>
+        <v>64300</v>
       </c>
       <c r="F59" s="3">
-        <v>29900</v>
+        <v>41100</v>
       </c>
       <c r="G59" s="3">
-        <v>30200</v>
+        <v>28500</v>
       </c>
       <c r="H59" s="3">
-        <v>26800</v>
+        <v>28800</v>
       </c>
       <c r="I59" s="3">
-        <v>22300</v>
+        <v>25500</v>
       </c>
       <c r="J59" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K59" s="3">
         <v>18500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
       <c r="P59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82100</v>
+        <v>73000</v>
       </c>
       <c r="E60" s="3">
-        <v>55300</v>
+        <v>78200</v>
       </c>
       <c r="F60" s="3">
-        <v>39800</v>
+        <v>52700</v>
       </c>
       <c r="G60" s="3">
-        <v>42900</v>
+        <v>37900</v>
       </c>
       <c r="H60" s="3">
-        <v>43100</v>
+        <v>40800</v>
       </c>
       <c r="I60" s="3">
-        <v>35700</v>
+        <v>41100</v>
       </c>
       <c r="J60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K60" s="3">
         <v>32500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>38700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>12500</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
+        <v>600</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>44100</v>
+        <v>33300</v>
       </c>
       <c r="E62" s="3">
-        <v>18600</v>
+        <v>42000</v>
       </c>
       <c r="F62" s="3">
-        <v>34100</v>
+        <v>17700</v>
       </c>
       <c r="G62" s="3">
-        <v>37300</v>
+        <v>32500</v>
       </c>
       <c r="H62" s="3">
-        <v>46500</v>
+        <v>35500</v>
       </c>
       <c r="I62" s="3">
-        <v>41200</v>
+        <v>44300</v>
       </c>
       <c r="J62" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K62" s="3">
         <v>47900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3617,8 +3763,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>127100</v>
+        <v>118800</v>
       </c>
       <c r="E66" s="3">
-        <v>74600</v>
+        <v>121100</v>
       </c>
       <c r="F66" s="3">
-        <v>74300</v>
+        <v>71100</v>
       </c>
       <c r="G66" s="3">
-        <v>80600</v>
+        <v>70800</v>
       </c>
       <c r="H66" s="3">
-        <v>90300</v>
+        <v>76900</v>
       </c>
       <c r="I66" s="3">
-        <v>77600</v>
+        <v>86000</v>
       </c>
       <c r="J66" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K66" s="3">
         <v>81200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>79600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>90000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>13000</v>
       </c>
       <c r="Q66" s="3">
         <v>13000</v>
       </c>
       <c r="R66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="S66" s="3">
         <v>14700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>84900</v>
+        <v>195200</v>
       </c>
       <c r="E72" s="3">
-        <v>54300</v>
+        <v>80900</v>
       </c>
       <c r="F72" s="3">
-        <v>46200</v>
+        <v>51700</v>
       </c>
       <c r="G72" s="3">
-        <v>34800</v>
+        <v>44000</v>
       </c>
       <c r="H72" s="3">
-        <v>44000</v>
+        <v>33100</v>
       </c>
       <c r="I72" s="3">
-        <v>23900</v>
+        <v>42000</v>
       </c>
       <c r="J72" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K72" s="3">
         <v>36300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>43200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>55300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>45100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88200</v>
+        <v>197100</v>
       </c>
       <c r="E76" s="3">
-        <v>57600</v>
+        <v>84000</v>
       </c>
       <c r="F76" s="3">
-        <v>49600</v>
+        <v>54900</v>
       </c>
       <c r="G76" s="3">
-        <v>38200</v>
+        <v>47300</v>
       </c>
       <c r="H76" s="3">
-        <v>47400</v>
+        <v>36400</v>
       </c>
       <c r="I76" s="3">
-        <v>27200</v>
+        <v>45100</v>
       </c>
       <c r="J76" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K76" s="3">
         <v>40200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>45500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18200</v>
+        <v>1600</v>
       </c>
       <c r="E81" s="3">
-        <v>-7300</v>
+        <v>-17400</v>
       </c>
       <c r="F81" s="3">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="G81" s="3">
-        <v>-10200</v>
+        <v>-14300</v>
       </c>
       <c r="H81" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I81" s="3">
-        <v>-13300</v>
+        <v>-15200</v>
       </c>
       <c r="J81" s="3">
         <v>-12700</v>
       </c>
       <c r="K81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4648,10 +4847,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>19300</v>
+        <v>-18700</v>
       </c>
       <c r="E89" s="3">
-        <v>-4400</v>
+        <v>18400</v>
       </c>
       <c r="F89" s="3">
-        <v>-18400</v>
+        <v>-4200</v>
       </c>
       <c r="G89" s="3">
-        <v>-20300</v>
+        <v>-17500</v>
       </c>
       <c r="H89" s="3">
-        <v>1900</v>
+        <v>-19300</v>
       </c>
       <c r="I89" s="3">
-        <v>-14300</v>
+        <v>1800</v>
       </c>
       <c r="J89" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-6800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-15700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>88000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,40 +5277,41 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -5099,16 +5320,16 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,40 +5461,43 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>9000</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-3600</v>
-      </c>
       <c r="G94" s="3">
-        <v>4500</v>
+        <v>-3400</v>
       </c>
       <c r="H94" s="3">
-        <v>8400</v>
+        <v>4300</v>
       </c>
       <c r="I94" s="3">
-        <v>9700</v>
+        <v>8000</v>
       </c>
       <c r="J94" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K94" s="3">
         <v>8900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -5276,25 +5506,28 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>46600</v>
+        <v>122800</v>
       </c>
       <c r="E100" s="3">
-        <v>14100</v>
+        <v>44500</v>
       </c>
       <c r="F100" s="3">
-        <v>25200</v>
+        <v>13500</v>
       </c>
       <c r="G100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
-        <v>34400</v>
-      </c>
       <c r="I100" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-800</v>
       </c>
       <c r="M100" s="3">
         <v>-800</v>
       </c>
       <c r="N100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>24900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>19300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4900</v>
+        <v>6600</v>
       </c>
       <c r="E101" s="3">
-        <v>-3300</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1600</v>
-      </c>
       <c r="I101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>70100</v>
+        <v>109500</v>
       </c>
       <c r="E102" s="3">
-        <v>6200</v>
+        <v>66800</v>
       </c>
       <c r="F102" s="3">
-        <v>2200</v>
+        <v>5900</v>
       </c>
       <c r="G102" s="3">
-        <v>-15300</v>
+        <v>2100</v>
       </c>
       <c r="H102" s="3">
-        <v>43200</v>
+        <v>-14600</v>
       </c>
       <c r="I102" s="3">
-        <v>-4900</v>
+        <v>41100</v>
       </c>
       <c r="J102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13700</v>
+        <v>9800</v>
       </c>
       <c r="E8" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="F8" s="3">
-        <v>12300</v>
+        <v>13200</v>
       </c>
       <c r="G8" s="3">
-        <v>3400</v>
+        <v>11000</v>
       </c>
       <c r="H8" s="3">
-        <v>6000</v>
+        <v>11900</v>
       </c>
       <c r="I8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>13400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>26900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +989,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13300</v>
+        <v>23300</v>
       </c>
       <c r="E12" s="3">
-        <v>19500</v>
+        <v>24600</v>
       </c>
       <c r="F12" s="3">
-        <v>11800</v>
+        <v>12900</v>
       </c>
       <c r="G12" s="3">
+        <v>18900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>14600</v>
+      </c>
+      <c r="L12" s="3">
         <v>13700</v>
       </c>
-      <c r="H12" s="3">
-        <v>13400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>14600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>6100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,29 +1121,35 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1122,11 +1162,11 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18400</v>
+        <v>30700</v>
       </c>
       <c r="E17" s="3">
-        <v>23900</v>
+        <v>30400</v>
       </c>
       <c r="F17" s="3">
-        <v>15700</v>
+        <v>17800</v>
       </c>
       <c r="G17" s="3">
-        <v>16500</v>
+        <v>23100</v>
       </c>
       <c r="H17" s="3">
-        <v>17500</v>
+        <v>15200</v>
       </c>
       <c r="I17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K17" s="3">
         <v>17800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>13800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>9200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4700</v>
+        <v>-20900</v>
       </c>
       <c r="E18" s="3">
-        <v>-12500</v>
+        <v>-19400</v>
       </c>
       <c r="F18" s="3">
-        <v>-3400</v>
+        <v>-4600</v>
       </c>
       <c r="G18" s="3">
-        <v>-13100</v>
+        <v>-12100</v>
       </c>
       <c r="H18" s="3">
-        <v>-11600</v>
+        <v>-3300</v>
       </c>
       <c r="I18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-8200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-7500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,146 +1446,160 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6500</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="3">
-        <v>-4800</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-3500</v>
+        <v>6300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1100</v>
+        <v>-4700</v>
       </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>-3400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-6600</v>
-      </c>
       <c r="G21" s="3">
-        <v>-13900</v>
+        <v>-16500</v>
       </c>
       <c r="H21" s="3">
-        <v>-9300</v>
+        <v>-6400</v>
       </c>
       <c r="I21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-14800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-13000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-8500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-6900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-8700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-8800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-8800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1531,10 +1611,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1546,7 +1626,7 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1555,81 +1635,93 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1700</v>
+        <v>-19300</v>
       </c>
       <c r="E23" s="3">
-        <v>-17400</v>
+        <v>-21200</v>
       </c>
       <c r="F23" s="3">
-        <v>-7000</v>
+        <v>1600</v>
       </c>
       <c r="G23" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>10400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-8900</v>
       </c>
       <c r="T23" s="3">
         <v>-9100</v>
       </c>
       <c r="U23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-6400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1645,14 +1737,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1685,13 +1777,19 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G26" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H26" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>10400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-8900</v>
       </c>
       <c r="T26" s="3">
         <v>-9100</v>
       </c>
       <c r="U26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G27" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H27" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>10400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-8900</v>
       </c>
       <c r="T27" s="3">
         <v>-9100</v>
       </c>
       <c r="U27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6500</v>
+        <v>-1900</v>
       </c>
       <c r="E32" s="3">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>3500</v>
+        <v>-6300</v>
       </c>
       <c r="G32" s="3">
-        <v>1100</v>
+        <v>4700</v>
       </c>
       <c r="H32" s="3">
-        <v>-2000</v>
+        <v>3400</v>
       </c>
       <c r="I32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G33" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H33" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>10400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-8900</v>
       </c>
       <c r="T33" s="3">
         <v>-9100</v>
       </c>
       <c r="U33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G35" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H35" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>10400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-8900</v>
       </c>
       <c r="T35" s="3">
         <v>-9100</v>
       </c>
       <c r="U35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,226 +2659,246 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>281000</v>
+        <v>224400</v>
       </c>
       <c r="E41" s="3">
-        <v>171400</v>
+        <v>251400</v>
       </c>
       <c r="F41" s="3">
-        <v>104700</v>
+        <v>271700</v>
       </c>
       <c r="G41" s="3">
-        <v>98700</v>
+        <v>165800</v>
       </c>
       <c r="H41" s="3">
-        <v>96600</v>
+        <v>101200</v>
       </c>
       <c r="I41" s="3">
+        <v>95500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K41" s="3">
         <v>111200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>70000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>78400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>74200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>112200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>52500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>60800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>44700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>37400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>49900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>57500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>41600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>9000</v>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>6400</v>
+        <v>8700</v>
       </c>
       <c r="I42" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K42" s="3">
         <v>10400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>19300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>29100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>37700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>16500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>9500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>4900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>5500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>11100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4900</v>
+        <v>4200</v>
       </c>
       <c r="E43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2400</v>
-      </c>
       <c r="H43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2800</v>
-      </c>
-      <c r="T43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2600</v>
       </c>
       <c r="V43" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X43" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
-        <v>400</v>
-      </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2715,7 +2907,7 @@
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2727,188 +2919,206 @@
         <v>300</v>
       </c>
       <c r="T44" s="3">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>600</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>600</v>
+      </c>
+      <c r="X45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>287100</v>
+        <v>229500</v>
       </c>
       <c r="E46" s="3">
-        <v>176000</v>
+        <v>256500</v>
       </c>
       <c r="F46" s="3">
-        <v>118400</v>
+        <v>277700</v>
       </c>
       <c r="G46" s="3">
-        <v>111000</v>
+        <v>170300</v>
       </c>
       <c r="H46" s="3">
-        <v>105900</v>
+        <v>114500</v>
       </c>
       <c r="I46" s="3">
+        <v>107300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>102500</v>
+      </c>
+      <c r="K46" s="3">
         <v>123600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>92800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>113300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>122700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>131200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>44500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>56100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>63900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>47100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>49600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>58500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>65900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>56200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21900</v>
+        <v>12700</v>
       </c>
       <c r="E47" s="3">
-        <v>23400</v>
+        <v>16600</v>
       </c>
       <c r="F47" s="3">
+        <v>21200</v>
+      </c>
+      <c r="G47" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I47" s="3">
         <v>3600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="I47" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>7800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2921,102 +3131,114 @@
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E48" s="3">
-        <v>3700</v>
+        <v>5100</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="G48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1200</v>
       </c>
       <c r="R48" s="3">
         <v>1300</v>
       </c>
       <c r="S48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U48" s="3">
         <v>1100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>315900</v>
+        <v>248800</v>
       </c>
       <c r="E54" s="3">
-        <v>205100</v>
+        <v>280000</v>
       </c>
       <c r="F54" s="3">
-        <v>126000</v>
+        <v>305500</v>
       </c>
       <c r="G54" s="3">
-        <v>118100</v>
+        <v>198400</v>
       </c>
       <c r="H54" s="3">
-        <v>113300</v>
+        <v>121900</v>
       </c>
       <c r="I54" s="3">
+        <v>114200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K54" s="3">
         <v>131200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>99900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>121400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>129800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>54300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>65900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>73100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>48400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>50900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>59700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>67000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>57200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,357 +3663,389 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12800</v>
+        <v>15500</v>
       </c>
       <c r="E57" s="3">
-        <v>13300</v>
+        <v>17900</v>
       </c>
       <c r="F57" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J57" s="3">
         <v>9500</v>
       </c>
-      <c r="G57" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>12500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>11100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3400</v>
       </c>
       <c r="P58" s="3">
         <v>3400</v>
       </c>
       <c r="Q58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59400</v>
+        <v>58500</v>
       </c>
       <c r="E59" s="3">
-        <v>64300</v>
+        <v>57200</v>
       </c>
       <c r="F59" s="3">
-        <v>41100</v>
+        <v>57500</v>
       </c>
       <c r="G59" s="3">
-        <v>28500</v>
+        <v>62200</v>
       </c>
       <c r="H59" s="3">
+        <v>39800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>25500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>21300</v>
+      </c>
+      <c r="M59" s="3">
+        <v>18500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="O59" s="3">
         <v>28800</v>
       </c>
-      <c r="I59" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>21300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>18500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>27300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>28800</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73000</v>
+        <v>74800</v>
       </c>
       <c r="E60" s="3">
-        <v>78200</v>
+        <v>75800</v>
       </c>
       <c r="F60" s="3">
-        <v>52700</v>
+        <v>70600</v>
       </c>
       <c r="G60" s="3">
-        <v>37900</v>
+        <v>75700</v>
       </c>
       <c r="H60" s="3">
-        <v>40800</v>
+        <v>51000</v>
       </c>
       <c r="I60" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K60" s="3">
         <v>41100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>34000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>32500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>38700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>43600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="E61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>4200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33300</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>42000</v>
+        <v>21900</v>
       </c>
       <c r="F62" s="3">
-        <v>17700</v>
+        <v>32200</v>
       </c>
       <c r="G62" s="3">
-        <v>32500</v>
+        <v>40600</v>
       </c>
       <c r="H62" s="3">
-        <v>35500</v>
+        <v>17200</v>
       </c>
       <c r="I62" s="3">
+        <v>31400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K62" s="3">
         <v>44300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>39300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>47900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>39400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>44400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3766,17 +4058,23 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>118800</v>
+        <v>97600</v>
       </c>
       <c r="E66" s="3">
-        <v>121100</v>
+        <v>109700</v>
       </c>
       <c r="F66" s="3">
-        <v>71100</v>
+        <v>114900</v>
       </c>
       <c r="G66" s="3">
-        <v>70800</v>
+        <v>117100</v>
       </c>
       <c r="H66" s="3">
-        <v>76900</v>
+        <v>68800</v>
       </c>
       <c r="I66" s="3">
+        <v>68500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K66" s="3">
         <v>86000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>73900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>81200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>79600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>90000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>13000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>11100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>195200</v>
+        <v>157800</v>
       </c>
       <c r="E72" s="3">
-        <v>80900</v>
+        <v>173100</v>
       </c>
       <c r="F72" s="3">
-        <v>51700</v>
+        <v>188800</v>
       </c>
       <c r="G72" s="3">
-        <v>44000</v>
+        <v>78200</v>
       </c>
       <c r="H72" s="3">
-        <v>33100</v>
+        <v>50000</v>
       </c>
       <c r="I72" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K72" s="3">
         <v>42000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>22800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>46300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>30600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>43200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>51100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>34900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>37400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>44500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>55300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>45100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197100</v>
+        <v>151100</v>
       </c>
       <c r="E76" s="3">
-        <v>84000</v>
+        <v>170400</v>
       </c>
       <c r="F76" s="3">
-        <v>54900</v>
+        <v>190600</v>
       </c>
       <c r="G76" s="3">
-        <v>47300</v>
+        <v>81300</v>
       </c>
       <c r="H76" s="3">
-        <v>36400</v>
+        <v>53100</v>
       </c>
       <c r="I76" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K76" s="3">
         <v>45100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>26000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>40200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>50200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>47500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>39700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>52300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>59600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>35400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>37900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>45000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>55900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>45500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-7000</v>
-      </c>
       <c r="G81" s="3">
-        <v>-14300</v>
+        <v>-16800</v>
       </c>
       <c r="H81" s="3">
-        <v>-9700</v>
+        <v>-6700</v>
       </c>
       <c r="I81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>10400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-7200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-8900</v>
       </c>
       <c r="T81" s="3">
         <v>-9100</v>
       </c>
       <c r="U81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5230,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4850,13 +5248,13 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J89" s="3">
         <v>-18700</v>
       </c>
-      <c r="E89" s="3">
-        <v>18400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-15700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>88000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-9100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-6600</v>
       </c>
       <c r="T89" s="3">
         <v>-8500</v>
       </c>
       <c r="U89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="W89" s="3">
         <v>-7700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>4300</v>
-      </c>
       <c r="I94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K94" s="3">
         <v>8000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-20800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>9300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>5400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>122800</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>44500</v>
+        <v>1200</v>
       </c>
       <c r="F100" s="3">
-        <v>13500</v>
+        <v>118800</v>
       </c>
       <c r="G100" s="3">
-        <v>24000</v>
+        <v>43000</v>
       </c>
       <c r="H100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>32800</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="O100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="R100" s="3">
+        <v>24900</v>
+      </c>
+      <c r="S100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V100" s="3">
+        <v>19300</v>
+      </c>
+      <c r="W100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="P100" s="3">
-        <v>24900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>4000</v>
-      </c>
-      <c r="R100" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S100" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T100" s="3">
-        <v>19300</v>
-      </c>
-      <c r="U100" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
-        <v>-1000</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>1500</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1000</v>
       </c>
       <c r="N101" s="3">
         <v>300</v>
       </c>
       <c r="O101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>109500</v>
+        <v>-27000</v>
       </c>
       <c r="E102" s="3">
-        <v>66800</v>
+        <v>-20300</v>
       </c>
       <c r="F102" s="3">
-        <v>5900</v>
+        <v>105900</v>
       </c>
       <c r="G102" s="3">
+        <v>64600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K102" s="3">
         <v>41100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-37300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>68300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-11400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-8800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>17000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-12500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>16000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="E8" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="F8" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G8" s="3">
-        <v>11000</v>
+        <v>10600</v>
       </c>
       <c r="H8" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="I8" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J8" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K8" s="3">
         <v>4600</v>
@@ -997,25 +997,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="E12" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="F12" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="G12" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="H12" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I12" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="J12" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="K12" s="3">
         <v>14600</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="E17" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="F17" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="G17" s="3">
-        <v>23100</v>
+        <v>22300</v>
       </c>
       <c r="H17" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I17" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="J17" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="K17" s="3">
         <v>17800</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20900</v>
+        <v>-20200</v>
       </c>
       <c r="E18" s="3">
-        <v>-19400</v>
+        <v>-18800</v>
       </c>
       <c r="F18" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="G18" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="H18" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="I18" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="J18" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="K18" s="3">
         <v>-13300</v>
@@ -1454,19 +1454,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F20" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G20" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="E21" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="F21" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="3">
-        <v>-16500</v>
+        <v>-15900</v>
       </c>
       <c r="H21" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="I21" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="J21" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="K21" s="3">
         <v>-14800</v>
@@ -1590,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1602,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E23" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F23" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H23" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I23" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J23" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K23" s="3">
         <v>-15200</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E26" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F26" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H26" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I26" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J26" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K26" s="3">
         <v>-15200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E27" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F27" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H27" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I27" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J27" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K27" s="3">
         <v>-15200</v>
@@ -2270,19 +2270,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="E32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="G32" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E33" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F33" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G33" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H33" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I33" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J33" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K33" s="3">
         <v>-15200</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E35" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F35" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H35" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I35" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J35" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K35" s="3">
         <v>-15200</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>224400</v>
+        <v>216800</v>
       </c>
       <c r="E41" s="3">
-        <v>251400</v>
+        <v>242900</v>
       </c>
       <c r="F41" s="3">
-        <v>271700</v>
+        <v>262600</v>
       </c>
       <c r="G41" s="3">
-        <v>165800</v>
+        <v>160200</v>
       </c>
       <c r="H41" s="3">
-        <v>101200</v>
+        <v>97800</v>
       </c>
       <c r="I41" s="3">
-        <v>95500</v>
+        <v>92300</v>
       </c>
       <c r="J41" s="3">
-        <v>93400</v>
+        <v>90300</v>
       </c>
       <c r="K41" s="3">
         <v>111200</v>
@@ -2747,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I42" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="J42" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="K42" s="3">
         <v>10400</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E43" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F43" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
-        <v>2900</v>
-      </c>
       <c r="I43" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J43" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K43" s="3">
         <v>1700</v>
@@ -2883,7 +2883,7 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
@@ -2942,7 +2942,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>229500</v>
+        <v>221800</v>
       </c>
       <c r="E46" s="3">
-        <v>256500</v>
+        <v>247800</v>
       </c>
       <c r="F46" s="3">
-        <v>277700</v>
+        <v>268300</v>
       </c>
       <c r="G46" s="3">
-        <v>170300</v>
+        <v>164500</v>
       </c>
       <c r="H46" s="3">
-        <v>114500</v>
+        <v>110600</v>
       </c>
       <c r="I46" s="3">
-        <v>107300</v>
+        <v>103700</v>
       </c>
       <c r="J46" s="3">
-        <v>102500</v>
+        <v>99000</v>
       </c>
       <c r="K46" s="3">
         <v>123600</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12700</v>
+        <v>12200</v>
       </c>
       <c r="E47" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F47" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="G47" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="H47" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I47" s="3">
         <v>3500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3700</v>
       </c>
       <c r="K47" s="3">
         <v>3700</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G48" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H48" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J48" s="3">
         <v>3100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3200</v>
       </c>
       <c r="K48" s="3">
         <v>3600</v>
@@ -3214,10 +3214,10 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G49" s="3">
         <v>1900</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>248800</v>
+        <v>240400</v>
       </c>
       <c r="E54" s="3">
-        <v>280000</v>
+        <v>270600</v>
       </c>
       <c r="F54" s="3">
-        <v>305500</v>
+        <v>295200</v>
       </c>
       <c r="G54" s="3">
-        <v>198400</v>
+        <v>191700</v>
       </c>
       <c r="H54" s="3">
-        <v>121900</v>
+        <v>117800</v>
       </c>
       <c r="I54" s="3">
-        <v>114200</v>
+        <v>110300</v>
       </c>
       <c r="J54" s="3">
-        <v>109500</v>
+        <v>105800</v>
       </c>
       <c r="K54" s="3">
         <v>131200</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="E57" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="F57" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G57" s="3">
         <v>12400</v>
       </c>
-      <c r="G57" s="3">
-        <v>12900</v>
-      </c>
       <c r="H57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J57" s="3">
         <v>9200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>9500</v>
       </c>
       <c r="K57" s="3">
         <v>12500</v>
@@ -3739,7 +3739,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -3748,16 +3748,16 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>2100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2200</v>
       </c>
       <c r="K58" s="3">
         <v>3100</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58500</v>
+        <v>56500</v>
       </c>
       <c r="E59" s="3">
-        <v>57200</v>
+        <v>55300</v>
       </c>
       <c r="F59" s="3">
-        <v>57500</v>
+        <v>55500</v>
       </c>
       <c r="G59" s="3">
-        <v>62200</v>
+        <v>60100</v>
       </c>
       <c r="H59" s="3">
-        <v>39800</v>
+        <v>38400</v>
       </c>
       <c r="I59" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="J59" s="3">
-        <v>27800</v>
+        <v>26900</v>
       </c>
       <c r="K59" s="3">
         <v>25500</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>74800</v>
+        <v>72300</v>
       </c>
       <c r="E60" s="3">
-        <v>75800</v>
+        <v>73300</v>
       </c>
       <c r="F60" s="3">
-        <v>70600</v>
+        <v>68200</v>
       </c>
       <c r="G60" s="3">
-        <v>75700</v>
+        <v>73100</v>
       </c>
       <c r="H60" s="3">
-        <v>51000</v>
+        <v>49300</v>
       </c>
       <c r="I60" s="3">
-        <v>36700</v>
+        <v>35400</v>
       </c>
       <c r="J60" s="3">
-        <v>39500</v>
+        <v>38200</v>
       </c>
       <c r="K60" s="3">
         <v>41100</v>
@@ -3943,13 +3943,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="E61" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="F61" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
@@ -3961,7 +3961,7 @@
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="E62" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="F62" s="3">
-        <v>32200</v>
+        <v>31100</v>
       </c>
       <c r="G62" s="3">
-        <v>40600</v>
+        <v>39300</v>
       </c>
       <c r="H62" s="3">
-        <v>17200</v>
+        <v>16600</v>
       </c>
       <c r="I62" s="3">
-        <v>31400</v>
+        <v>30400</v>
       </c>
       <c r="J62" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="K62" s="3">
         <v>44300</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97600</v>
+        <v>94300</v>
       </c>
       <c r="E66" s="3">
-        <v>109700</v>
+        <v>106000</v>
       </c>
       <c r="F66" s="3">
-        <v>114900</v>
+        <v>111000</v>
       </c>
       <c r="G66" s="3">
-        <v>117100</v>
+        <v>113200</v>
       </c>
       <c r="H66" s="3">
-        <v>68800</v>
+        <v>66500</v>
       </c>
       <c r="I66" s="3">
-        <v>68500</v>
+        <v>66200</v>
       </c>
       <c r="J66" s="3">
-        <v>74300</v>
+        <v>71800</v>
       </c>
       <c r="K66" s="3">
         <v>86000</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>157800</v>
+        <v>152500</v>
       </c>
       <c r="E72" s="3">
-        <v>173100</v>
+        <v>167200</v>
       </c>
       <c r="F72" s="3">
-        <v>188800</v>
+        <v>182400</v>
       </c>
       <c r="G72" s="3">
-        <v>78200</v>
+        <v>75600</v>
       </c>
       <c r="H72" s="3">
-        <v>50000</v>
+        <v>48300</v>
       </c>
       <c r="I72" s="3">
-        <v>42600</v>
+        <v>41100</v>
       </c>
       <c r="J72" s="3">
-        <v>32000</v>
+        <v>31000</v>
       </c>
       <c r="K72" s="3">
         <v>42000</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>151100</v>
+        <v>146000</v>
       </c>
       <c r="E76" s="3">
-        <v>170400</v>
+        <v>164600</v>
       </c>
       <c r="F76" s="3">
-        <v>190600</v>
+        <v>184200</v>
       </c>
       <c r="G76" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="H76" s="3">
-        <v>53100</v>
+        <v>51300</v>
       </c>
       <c r="I76" s="3">
-        <v>45700</v>
+        <v>44200</v>
       </c>
       <c r="J76" s="3">
-        <v>35200</v>
+        <v>34000</v>
       </c>
       <c r="K76" s="3">
         <v>45100</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19300</v>
+        <v>-18600</v>
       </c>
       <c r="E81" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="F81" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G81" s="3">
-        <v>-16800</v>
+        <v>-16200</v>
       </c>
       <c r="H81" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I81" s="3">
-        <v>-13800</v>
+        <v>-13400</v>
       </c>
       <c r="J81" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="K81" s="3">
         <v>-15200</v>
@@ -5224,7 +5224,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-28900</v>
+        <v>-27900</v>
       </c>
       <c r="E89" s="3">
-        <v>-19600</v>
+        <v>-18900</v>
       </c>
       <c r="F89" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>17200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-18100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-18700</v>
       </c>
       <c r="K89" s="3">
         <v>1800</v>
@@ -5732,7 +5732,7 @@
         <v>-600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5939,16 +5939,16 @@
         <v>-1100</v>
       </c>
       <c r="G94" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="J94" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K94" s="3">
         <v>8000</v>
@@ -6302,16 +6302,16 @@
         <v>1200</v>
       </c>
       <c r="F100" s="3">
-        <v>118800</v>
+        <v>114800</v>
       </c>
       <c r="G100" s="3">
-        <v>43000</v>
+        <v>41500</v>
       </c>
       <c r="H100" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="I100" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="J100" s="3">
         <v>-1000</v>
@@ -6367,16 +6367,16 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
         <v>-900</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-27000</v>
+        <v>-26100</v>
       </c>
       <c r="E102" s="3">
-        <v>-20300</v>
+        <v>-19600</v>
       </c>
       <c r="F102" s="3">
-        <v>105900</v>
+        <v>102300</v>
       </c>
       <c r="G102" s="3">
-        <v>64600</v>
+        <v>62400</v>
       </c>
       <c r="H102" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="I102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J102" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="K102" s="3">
         <v>41100</v>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9500</v>
+        <v>10700</v>
       </c>
       <c r="E8" s="3">
-        <v>10600</v>
+        <v>9000</v>
       </c>
       <c r="F8" s="3">
-        <v>12800</v>
+        <v>10100</v>
       </c>
       <c r="G8" s="3">
-        <v>10600</v>
+        <v>12100</v>
       </c>
       <c r="H8" s="3">
-        <v>11500</v>
+        <v>10100</v>
       </c>
       <c r="I8" s="3">
-        <v>3200</v>
+        <v>10900</v>
       </c>
       <c r="J8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>26900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>600</v>
       </c>
       <c r="U8" s="3">
         <v>600</v>
       </c>
       <c r="V8" s="3">
+        <v>600</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22500</v>
+        <v>28700</v>
       </c>
       <c r="E12" s="3">
-        <v>23800</v>
+        <v>21400</v>
       </c>
       <c r="F12" s="3">
-        <v>12400</v>
+        <v>22600</v>
       </c>
       <c r="G12" s="3">
-        <v>18300</v>
+        <v>11800</v>
       </c>
       <c r="H12" s="3">
-        <v>11000</v>
+        <v>17400</v>
       </c>
       <c r="I12" s="3">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="J12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,32 +1143,35 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29700</v>
+        <v>35800</v>
       </c>
       <c r="E17" s="3">
-        <v>29400</v>
+        <v>28300</v>
       </c>
       <c r="F17" s="3">
-        <v>17200</v>
+        <v>27900</v>
       </c>
       <c r="G17" s="3">
-        <v>22300</v>
+        <v>16300</v>
       </c>
       <c r="H17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J17" s="3">
         <v>14700</v>
       </c>
-      <c r="I17" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20200</v>
+        <v>-25100</v>
       </c>
       <c r="E18" s="3">
-        <v>-18800</v>
+        <v>-19200</v>
       </c>
       <c r="F18" s="3">
-        <v>-4400</v>
+        <v>-17900</v>
       </c>
       <c r="G18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-11700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-7500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-18100</v>
+        <v>-23300</v>
       </c>
       <c r="E21" s="3">
-        <v>-19900</v>
+        <v>-17200</v>
       </c>
       <c r="F21" s="3">
-        <v>2000</v>
+        <v>-18900</v>
       </c>
       <c r="G21" s="3">
-        <v>-15900</v>
+        <v>1900</v>
       </c>
       <c r="H21" s="3">
-        <v>-6200</v>
+        <v>-15100</v>
       </c>
       <c r="I21" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>10700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-13000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="R21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="U21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>2600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>10700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-8800</v>
       </c>
       <c r="V21" s="3">
         <v>-8800</v>
       </c>
       <c r="W21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="X21" s="3">
         <v>-6300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,16 +1635,16 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1617,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1632,96 +1671,102 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E23" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I23" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-12700</v>
       </c>
       <c r="M23" s="3">
         <v>-12700</v>
       </c>
       <c r="N23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1743,11 +1788,11 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1783,13 +1828,16 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E26" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I26" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-12700</v>
       </c>
       <c r="M26" s="3">
         <v>-12700</v>
       </c>
       <c r="N26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E27" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H27" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I27" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-12700</v>
       </c>
       <c r="M27" s="3">
         <v>-12700</v>
       </c>
       <c r="N27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="E32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E33" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I33" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-12700</v>
       </c>
       <c r="M33" s="3">
         <v>-12700</v>
       </c>
       <c r="N33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E35" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I35" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-12700</v>
       </c>
       <c r="M35" s="3">
         <v>-12700</v>
       </c>
       <c r="N35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>216800</v>
+        <v>205100</v>
       </c>
       <c r="E41" s="3">
-        <v>242900</v>
+        <v>206300</v>
       </c>
       <c r="F41" s="3">
-        <v>262600</v>
+        <v>231100</v>
       </c>
       <c r="G41" s="3">
-        <v>160200</v>
+        <v>249800</v>
       </c>
       <c r="H41" s="3">
-        <v>97800</v>
+        <v>152400</v>
       </c>
       <c r="I41" s="3">
-        <v>92300</v>
+        <v>93100</v>
       </c>
       <c r="J41" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K41" s="3">
         <v>90300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>111200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>41100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>60800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>49900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>57500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,159 +2832,165 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="J42" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K42" s="3">
         <v>6000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>9500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>4900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>5500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F43" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="G43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>9800</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y43" s="3">
         <v>2700</v>
       </c>
-      <c r="W43" s="3">
-        <v>2600</v>
-      </c>
-      <c r="X43" s="3">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -2904,13 +2999,13 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
+        <v>400</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -2925,203 +3020,212 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
       </c>
       <c r="X44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
       </c>
       <c r="S45" s="3">
         <v>900</v>
       </c>
       <c r="T45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="U45" s="3">
         <v>600</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>221800</v>
+        <v>214200</v>
       </c>
       <c r="E46" s="3">
-        <v>247800</v>
+        <v>211000</v>
       </c>
       <c r="F46" s="3">
-        <v>268300</v>
+        <v>235800</v>
       </c>
       <c r="G46" s="3">
-        <v>164500</v>
+        <v>255200</v>
       </c>
       <c r="H46" s="3">
-        <v>110600</v>
+        <v>156500</v>
       </c>
       <c r="I46" s="3">
-        <v>103700</v>
+        <v>105200</v>
       </c>
       <c r="J46" s="3">
+        <v>98700</v>
+      </c>
+      <c r="K46" s="3">
         <v>99000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>123600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>92800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>122700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>44500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>56100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>63900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>47100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>49600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>58500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>65900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>56200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="E47" s="3">
-        <v>16000</v>
+        <v>11600</v>
       </c>
       <c r="F47" s="3">
-        <v>20500</v>
+        <v>15200</v>
       </c>
       <c r="G47" s="3">
-        <v>21900</v>
+        <v>19500</v>
       </c>
       <c r="H47" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J47" s="3">
         <v>3300</v>
       </c>
-      <c r="I47" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3137,67 +3241,70 @@
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="E48" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K48" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1400</v>
       </c>
       <c r="Q48" s="3">
         <v>1400</v>
       </c>
       <c r="R48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1000</v>
       </c>
       <c r="W48" s="3">
         <v>1000</v>
@@ -3205,25 +3312,28 @@
       <c r="X48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="3">
         <v>1800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>1800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3232,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -3241,7 +3351,7 @@
         <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>240400</v>
+        <v>233700</v>
       </c>
       <c r="E54" s="3">
-        <v>270600</v>
+        <v>228700</v>
       </c>
       <c r="F54" s="3">
-        <v>295200</v>
+        <v>257400</v>
       </c>
       <c r="G54" s="3">
-        <v>191700</v>
+        <v>280800</v>
       </c>
       <c r="H54" s="3">
-        <v>117800</v>
+        <v>182400</v>
       </c>
       <c r="I54" s="3">
-        <v>110300</v>
+        <v>112000</v>
       </c>
       <c r="J54" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K54" s="3">
         <v>105800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>131200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>99900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>129800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>137400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>54300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>65900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>50900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>59700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>67000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>57200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,117 +3794,121 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15000</v>
+        <v>19600</v>
       </c>
       <c r="E57" s="3">
-        <v>17300</v>
+        <v>14200</v>
       </c>
       <c r="F57" s="3">
-        <v>12000</v>
+        <v>16400</v>
       </c>
       <c r="G57" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="H57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="M57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
-        <v>12500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>8900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>9200</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
-        <v>700</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
-        <v>2000</v>
-      </c>
       <c r="I58" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3400</v>
       </c>
       <c r="Q58" s="3">
         <v>3400</v>
@@ -3784,271 +3917,283 @@
         <v>3400</v>
       </c>
       <c r="S58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>56500</v>
+        <v>46100</v>
       </c>
       <c r="E59" s="3">
-        <v>55300</v>
+        <v>53800</v>
       </c>
       <c r="F59" s="3">
-        <v>55500</v>
+        <v>52600</v>
       </c>
       <c r="G59" s="3">
-        <v>60100</v>
+        <v>52800</v>
       </c>
       <c r="H59" s="3">
-        <v>38400</v>
+        <v>57100</v>
       </c>
       <c r="I59" s="3">
-        <v>26600</v>
+        <v>36500</v>
       </c>
       <c r="J59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K59" s="3">
         <v>26900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>25500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
       <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72300</v>
+        <v>67000</v>
       </c>
       <c r="E60" s="3">
-        <v>73300</v>
+        <v>68800</v>
       </c>
       <c r="F60" s="3">
-        <v>68200</v>
+        <v>69700</v>
       </c>
       <c r="G60" s="3">
-        <v>73100</v>
+        <v>64900</v>
       </c>
       <c r="H60" s="3">
-        <v>49300</v>
+        <v>69600</v>
       </c>
       <c r="I60" s="3">
-        <v>35400</v>
+        <v>46900</v>
       </c>
       <c r="J60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K60" s="3">
         <v>38200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>41100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>34000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>43600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11300</v>
+        <v>18100</v>
       </c>
       <c r="E61" s="3">
-        <v>11600</v>
+        <v>10800</v>
       </c>
       <c r="F61" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>11100</v>
       </c>
       <c r="H61" s="3">
+        <v>700</v>
+      </c>
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
       </c>
       <c r="M61" s="3">
+        <v>600</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10700</v>
+        <v>7500</v>
       </c>
       <c r="E62" s="3">
-        <v>21100</v>
+        <v>10200</v>
       </c>
       <c r="F62" s="3">
-        <v>31100</v>
+        <v>20100</v>
       </c>
       <c r="G62" s="3">
+        <v>29600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>37400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>33200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>44300</v>
+      </c>
+      <c r="M62" s="3">
         <v>39300</v>
       </c>
-      <c r="H62" s="3">
-        <v>16600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>30400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>33200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>44300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>39300</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4064,8 +4209,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94300</v>
+        <v>92600</v>
       </c>
       <c r="E66" s="3">
-        <v>106000</v>
+        <v>89800</v>
       </c>
       <c r="F66" s="3">
-        <v>111000</v>
+        <v>100800</v>
       </c>
       <c r="G66" s="3">
-        <v>113200</v>
+        <v>105600</v>
       </c>
       <c r="H66" s="3">
-        <v>66500</v>
+        <v>107700</v>
       </c>
       <c r="I66" s="3">
-        <v>66200</v>
+        <v>63200</v>
       </c>
       <c r="J66" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K66" s="3">
         <v>71800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>73900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>79600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>90000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>13000</v>
       </c>
       <c r="T66" s="3">
         <v>13000</v>
       </c>
       <c r="U66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="V66" s="3">
         <v>14700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>152500</v>
+        <v>146000</v>
       </c>
       <c r="E72" s="3">
-        <v>167200</v>
+        <v>145100</v>
       </c>
       <c r="F72" s="3">
-        <v>182400</v>
+        <v>159100</v>
       </c>
       <c r="G72" s="3">
-        <v>75600</v>
+        <v>173500</v>
       </c>
       <c r="H72" s="3">
-        <v>48300</v>
+        <v>71900</v>
       </c>
       <c r="I72" s="3">
-        <v>41100</v>
+        <v>46000</v>
       </c>
       <c r="J72" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K72" s="3">
         <v>31000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>43700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>37400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>44500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>55300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>45100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>146000</v>
+        <v>141100</v>
       </c>
       <c r="E76" s="3">
-        <v>164600</v>
+        <v>138900</v>
       </c>
       <c r="F76" s="3">
-        <v>184200</v>
+        <v>156600</v>
       </c>
       <c r="G76" s="3">
-        <v>78500</v>
+        <v>175200</v>
       </c>
       <c r="H76" s="3">
-        <v>51300</v>
+        <v>74700</v>
       </c>
       <c r="I76" s="3">
-        <v>44200</v>
+        <v>48800</v>
       </c>
       <c r="J76" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K76" s="3">
         <v>34000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>45000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>55900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>45500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18600</v>
+        <v>-24000</v>
       </c>
       <c r="E81" s="3">
-        <v>-20500</v>
+        <v>-17700</v>
       </c>
       <c r="F81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-16200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-6500</v>
+        <v>-15400</v>
       </c>
       <c r="I81" s="3">
-        <v>-13400</v>
+        <v>-6200</v>
       </c>
       <c r="J81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-12700</v>
       </c>
       <c r="M81" s="3">
         <v>-12700</v>
       </c>
       <c r="N81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,19 +5415,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -5254,10 +5452,10 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-27900</v>
+        <v>-28700</v>
       </c>
       <c r="E89" s="3">
-        <v>-18900</v>
+        <v>-26600</v>
       </c>
       <c r="F89" s="3">
-        <v>-17500</v>
+        <v>-18000</v>
       </c>
       <c r="G89" s="3">
-        <v>17200</v>
+        <v>-16600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3900</v>
+        <v>16300</v>
       </c>
       <c r="I89" s="3">
-        <v>-16400</v>
+        <v>-3700</v>
       </c>
       <c r="J89" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-18100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>88000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,49 +5939,50 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
@@ -5771,16 +5991,16 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,49 +6150,52 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K94" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L94" s="3">
         <v>8000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>8000</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>9200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>8900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
@@ -5975,25 +6204,28 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>9300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>1200</v>
-      </c>
       <c r="F100" s="3">
-        <v>114800</v>
+        <v>1100</v>
       </c>
       <c r="G100" s="3">
-        <v>41500</v>
+        <v>109200</v>
       </c>
       <c r="H100" s="3">
-        <v>12600</v>
+        <v>39500</v>
       </c>
       <c r="I100" s="3">
-        <v>22400</v>
+        <v>12000</v>
       </c>
       <c r="J100" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-800</v>
       </c>
       <c r="P100" s="3">
         <v>-800</v>
       </c>
       <c r="Q100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>19300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="E101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="F101" s="3">
-        <v>6100</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4400</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-4100</v>
       </c>
       <c r="I101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-26100</v>
+        <v>-1200</v>
       </c>
       <c r="E102" s="3">
-        <v>-19600</v>
+        <v>-24800</v>
       </c>
       <c r="F102" s="3">
-        <v>102300</v>
+        <v>-18700</v>
       </c>
       <c r="G102" s="3">
-        <v>62400</v>
+        <v>97400</v>
       </c>
       <c r="H102" s="3">
-        <v>5500</v>
+        <v>59400</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>5300</v>
       </c>
       <c r="J102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>41100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-12500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>16000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10700</v>
+        <v>7300</v>
       </c>
       <c r="E8" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F8" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="G8" s="3">
-        <v>12100</v>
+        <v>8700</v>
       </c>
       <c r="H8" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="I8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>13400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>26900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>28700</v>
+        <v>20800</v>
       </c>
       <c r="E12" s="3">
-        <v>21400</v>
+        <v>18300</v>
       </c>
       <c r="F12" s="3">
-        <v>22600</v>
+        <v>27600</v>
       </c>
       <c r="G12" s="3">
-        <v>11800</v>
+        <v>20600</v>
       </c>
       <c r="H12" s="3">
-        <v>17400</v>
+        <v>21700</v>
       </c>
       <c r="I12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K12" s="3">
         <v>10500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>12100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>14600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>13700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>14100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>7900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>5200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>6700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>6100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>6700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,38 +1180,44 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1190,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>35800</v>
+        <v>28900</v>
       </c>
       <c r="E17" s="3">
-        <v>28300</v>
+        <v>25100</v>
       </c>
       <c r="F17" s="3">
-        <v>27900</v>
+        <v>34400</v>
       </c>
       <c r="G17" s="3">
-        <v>16300</v>
+        <v>27200</v>
       </c>
       <c r="H17" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="I17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K17" s="3">
         <v>14000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>16800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>15500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>13800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>10300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25100</v>
+        <v>-21600</v>
       </c>
       <c r="E18" s="3">
-        <v>-19200</v>
+        <v>-17100</v>
       </c>
       <c r="F18" s="3">
-        <v>-17900</v>
+        <v>-24200</v>
       </c>
       <c r="G18" s="3">
-        <v>-4200</v>
+        <v>-18500</v>
       </c>
       <c r="H18" s="3">
-        <v>-11100</v>
+        <v>-17200</v>
       </c>
       <c r="I18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-13300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>11300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-13400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-6600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-8200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-7600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-8600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,176 +1547,190 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>400</v>
+      </c>
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-23300</v>
+        <v>-18600</v>
       </c>
       <c r="E21" s="3">
-        <v>-17200</v>
+        <v>-15900</v>
       </c>
       <c r="F21" s="3">
-        <v>-18900</v>
+        <v>-22400</v>
       </c>
       <c r="G21" s="3">
-        <v>1900</v>
+        <v>-16500</v>
       </c>
       <c r="H21" s="3">
-        <v>-15100</v>
+        <v>-18200</v>
       </c>
       <c r="I21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-12400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-14800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>10700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-13000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-8500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-8600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-8700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-8800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-8800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1659,10 +1739,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1674,7 +1754,7 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1683,90 +1763,102 @@
         <v>300</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>300</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E23" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F23" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G23" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H23" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-8900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-9000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-8900</v>
       </c>
       <c r="W23" s="3">
         <v>-9100</v>
       </c>
       <c r="X23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1791,14 +1883,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1831,13 +1923,19 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E26" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F26" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G26" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H26" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-13300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-9000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-8900</v>
       </c>
       <c r="W26" s="3">
         <v>-9100</v>
       </c>
       <c r="X26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E27" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F27" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G27" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H27" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-13300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-9000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-8900</v>
       </c>
       <c r="W27" s="3">
         <v>-9100</v>
       </c>
       <c r="X27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E33" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F33" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G33" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H33" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-13300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-9000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-8900</v>
       </c>
       <c r="W33" s="3">
         <v>-9100</v>
       </c>
       <c r="X33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E35" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F35" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G35" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H35" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-13300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-9000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-8900</v>
       </c>
       <c r="W35" s="3">
         <v>-9100</v>
       </c>
       <c r="X35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205100</v>
+        <v>236600</v>
       </c>
       <c r="E41" s="3">
-        <v>206300</v>
+        <v>169400</v>
       </c>
       <c r="F41" s="3">
-        <v>231100</v>
+        <v>197100</v>
       </c>
       <c r="G41" s="3">
-        <v>249800</v>
+        <v>198200</v>
       </c>
       <c r="H41" s="3">
-        <v>152400</v>
+        <v>222100</v>
       </c>
       <c r="I41" s="3">
+        <v>240000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K41" s="3">
         <v>93100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>87800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>90300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>111200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>70000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>78400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>74200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>112200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>41100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>52500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>60800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>44700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>37400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>49900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>57500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>41600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2835,174 +3015,186 @@
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>6000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>10400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>29100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>37700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>16500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>9500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>4900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>5500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>11100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="E43" s="3">
-        <v>3900</v>
+        <v>4500</v>
       </c>
       <c r="F43" s="3">
-        <v>3900</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="I43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>9800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2800</v>
-      </c>
-      <c r="W43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="X43" s="3">
-        <v>2600</v>
       </c>
       <c r="Y43" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -3011,7 +3203,7 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -3023,215 +3215,233 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>11400</v>
       </c>
       <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>2200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
-      </c>
-      <c r="V45" s="3">
-        <v>600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>600</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>214200</v>
+        <v>254100</v>
       </c>
       <c r="E46" s="3">
-        <v>211000</v>
+        <v>180500</v>
       </c>
       <c r="F46" s="3">
-        <v>235800</v>
+        <v>205900</v>
       </c>
       <c r="G46" s="3">
-        <v>255200</v>
+        <v>202700</v>
       </c>
       <c r="H46" s="3">
-        <v>156500</v>
+        <v>226600</v>
       </c>
       <c r="I46" s="3">
+        <v>245300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K46" s="3">
         <v>105200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>98700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>99000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>123600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>92800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>113300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>122700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>131200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>44500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>56100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>63900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>47100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>49600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>58500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>65900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>56200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>11600</v>
+        <v>6200</v>
       </c>
       <c r="F47" s="3">
-        <v>15200</v>
+        <v>12300</v>
       </c>
       <c r="G47" s="3">
-        <v>19500</v>
+        <v>11200</v>
       </c>
       <c r="H47" s="3">
-        <v>20800</v>
+        <v>14700</v>
       </c>
       <c r="I47" s="3">
+        <v>18700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>8400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>8300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>7800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3244,120 +3454,132 @@
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="E48" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F48" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="H48" s="3">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="I48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1200</v>
       </c>
       <c r="U48" s="3">
         <v>1300</v>
       </c>
       <c r="V48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X48" s="3">
         <v>1100</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>1000</v>
       </c>
       <c r="Y48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="J49" s="3">
         <v>1700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
       </c>
       <c r="O49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233700</v>
+        <v>260200</v>
       </c>
       <c r="E54" s="3">
-        <v>228700</v>
+        <v>192700</v>
       </c>
       <c r="F54" s="3">
-        <v>257400</v>
+        <v>224500</v>
       </c>
       <c r="G54" s="3">
-        <v>280800</v>
+        <v>219800</v>
       </c>
       <c r="H54" s="3">
-        <v>182400</v>
+        <v>247400</v>
       </c>
       <c r="I54" s="3">
+        <v>269900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>175300</v>
+      </c>
+      <c r="K54" s="3">
         <v>112000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>105000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>105800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>131200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>99900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>121400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>129800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>137400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>54300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>65900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>73100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>48400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>50900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>59700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>67000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>57200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,411 +4055,443 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>19600</v>
+        <v>12700</v>
       </c>
       <c r="E57" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="F57" s="3">
-        <v>16400</v>
+        <v>18800</v>
       </c>
       <c r="G57" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="H57" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>12500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>11100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>6600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>3400</v>
       </c>
       <c r="S58" s="3">
         <v>3400</v>
       </c>
       <c r="T58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46100</v>
+        <v>35000</v>
       </c>
       <c r="E59" s="3">
-        <v>53800</v>
+        <v>41500</v>
       </c>
       <c r="F59" s="3">
-        <v>52600</v>
+        <v>44300</v>
       </c>
       <c r="G59" s="3">
-        <v>52800</v>
+        <v>51700</v>
       </c>
       <c r="H59" s="3">
-        <v>57100</v>
+        <v>50600</v>
       </c>
       <c r="I59" s="3">
+        <v>50800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K59" s="3">
         <v>36500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>25300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>26900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>25500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>21300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>18500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>27300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>300</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>57600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>64400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>66100</v>
+      </c>
+      <c r="H60" s="3">
         <v>67000</v>
       </c>
-      <c r="E60" s="3">
-        <v>68800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>69700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>64900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>69600</v>
-      </c>
       <c r="I60" s="3">
+        <v>62400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K60" s="3">
         <v>46900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>33700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>38200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>41100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>34000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>32500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>38700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>43600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18100</v>
+        <v>14600</v>
       </c>
       <c r="E61" s="3">
-        <v>10800</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
-        <v>11000</v>
+        <v>17400</v>
       </c>
       <c r="G61" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="H61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I61" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>4600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7500</v>
+        <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>10200</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="3">
-        <v>20100</v>
+        <v>7200</v>
       </c>
       <c r="G62" s="3">
-        <v>29600</v>
+        <v>9800</v>
       </c>
       <c r="H62" s="3">
-        <v>37400</v>
+        <v>19300</v>
       </c>
       <c r="I62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35900</v>
+      </c>
+      <c r="K62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>33200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>44300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>39300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>47900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>39400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4212,17 +4504,23 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92600</v>
+        <v>67900</v>
       </c>
       <c r="E66" s="3">
-        <v>89800</v>
+        <v>75600</v>
       </c>
       <c r="F66" s="3">
-        <v>100800</v>
+        <v>89000</v>
       </c>
       <c r="G66" s="3">
-        <v>105600</v>
+        <v>86300</v>
       </c>
       <c r="H66" s="3">
-        <v>107700</v>
+        <v>96900</v>
       </c>
       <c r="I66" s="3">
+        <v>101500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>103500</v>
+      </c>
+      <c r="K66" s="3">
         <v>63200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>62900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>71800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>86000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>73900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>81200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>79600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>90000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>13700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>13500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>13000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>14700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>11100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>11700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>146000</v>
+        <v>200700</v>
       </c>
       <c r="E72" s="3">
-        <v>145100</v>
+        <v>128000</v>
       </c>
       <c r="F72" s="3">
-        <v>159100</v>
+        <v>140300</v>
       </c>
       <c r="G72" s="3">
-        <v>173500</v>
+        <v>139400</v>
       </c>
       <c r="H72" s="3">
-        <v>71900</v>
+        <v>152900</v>
       </c>
       <c r="I72" s="3">
+        <v>166700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>69100</v>
+      </c>
+      <c r="K72" s="3">
         <v>46000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>39100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>31000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>42000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>22800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>36300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>46300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>43700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>30600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>43200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>51100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>34900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>37400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>44500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>55300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>45100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>141100</v>
+        <v>192300</v>
       </c>
       <c r="E76" s="3">
-        <v>138900</v>
+        <v>117100</v>
       </c>
       <c r="F76" s="3">
-        <v>156600</v>
+        <v>135600</v>
       </c>
       <c r="G76" s="3">
-        <v>175200</v>
+        <v>133500</v>
       </c>
       <c r="H76" s="3">
-        <v>74700</v>
+        <v>150500</v>
       </c>
       <c r="I76" s="3">
+        <v>168400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K76" s="3">
         <v>48800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>45100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>26000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>50200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>47500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>52300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>59600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>35400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>37900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>45000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>55900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>45500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24000</v>
+        <v>-19400</v>
       </c>
       <c r="E81" s="3">
-        <v>-17700</v>
+        <v>-16600</v>
       </c>
       <c r="F81" s="3">
-        <v>-19500</v>
+        <v>-23000</v>
       </c>
       <c r="G81" s="3">
-        <v>1500</v>
+        <v>-17100</v>
       </c>
       <c r="H81" s="3">
-        <v>-15400</v>
+        <v>-18700</v>
       </c>
       <c r="I81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-13300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-9000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7200</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-8900</v>
       </c>
       <c r="W81" s="3">
         <v>-9100</v>
       </c>
       <c r="X81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,10 +5823,10 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -5455,13 +5853,13 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-28700</v>
+        <v>-26400</v>
       </c>
       <c r="E89" s="3">
-        <v>-26600</v>
+        <v>-28300</v>
       </c>
       <c r="F89" s="3">
-        <v>-18000</v>
+        <v>-27600</v>
       </c>
       <c r="G89" s="3">
-        <v>-16600</v>
+        <v>-25500</v>
       </c>
       <c r="H89" s="3">
-        <v>16300</v>
+        <v>-17300</v>
       </c>
       <c r="I89" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-6800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-15700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>88000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-10800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-9100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-7600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-5500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-6600</v>
       </c>
       <c r="W89" s="3">
         <v>-8500</v>
       </c>
       <c r="X89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-300</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2400</v>
+        <v>1400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-600</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>8000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>8900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-20800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V94" s="3">
         <v>9300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>5200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>5400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28500</v>
+        <v>89500</v>
       </c>
       <c r="E100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>27400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
-        <v>109200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>39500</v>
-      </c>
       <c r="I100" s="3">
+        <v>104900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>32800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>24900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>19300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="E101" s="3">
-        <v>1900</v>
+        <v>900</v>
       </c>
       <c r="F101" s="3">
-        <v>-1300</v>
+        <v>1400</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-1200</v>
       </c>
       <c r="I101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q101" s="3">
         <v>300</v>
       </c>
       <c r="R101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>300</v>
+      </c>
+      <c r="T101" s="3">
         <v>1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1200</v>
+        <v>67200</v>
       </c>
       <c r="E102" s="3">
-        <v>-24800</v>
+        <v>-27700</v>
       </c>
       <c r="F102" s="3">
-        <v>-18700</v>
+        <v>-1100</v>
       </c>
       <c r="G102" s="3">
-        <v>97400</v>
+        <v>-23900</v>
       </c>
       <c r="H102" s="3">
-        <v>59400</v>
+        <v>-17900</v>
       </c>
       <c r="I102" s="3">
+        <v>93600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K102" s="3">
         <v>5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>41100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-37300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>68300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>17000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>7300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-12500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-5100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>16000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="F8" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="G8" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H8" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="I8" s="3">
-        <v>11700</v>
+        <v>11900</v>
       </c>
       <c r="J8" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="K8" s="3">
         <v>10900</v>
@@ -1038,25 +1038,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>20800</v>
+        <v>21300</v>
       </c>
       <c r="E12" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="F12" s="3">
-        <v>27600</v>
+        <v>28200</v>
       </c>
       <c r="G12" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="H12" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="I12" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J12" s="3">
-        <v>16700</v>
+        <v>17100</v>
       </c>
       <c r="K12" s="3">
         <v>10500</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="E17" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="F17" s="3">
-        <v>34400</v>
+        <v>35200</v>
       </c>
       <c r="G17" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="H17" s="3">
-        <v>26800</v>
+        <v>27500</v>
       </c>
       <c r="I17" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="J17" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="K17" s="3">
         <v>14000</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21600</v>
+        <v>-22100</v>
       </c>
       <c r="E18" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="F18" s="3">
-        <v>-24200</v>
+        <v>-24700</v>
       </c>
       <c r="G18" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="H18" s="3">
-        <v>-17200</v>
+        <v>-17600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="J18" s="3">
-        <v>-10700</v>
+        <v>-11000</v>
       </c>
       <c r="K18" s="3">
         <v>-3100</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
         <v>900</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>1700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J20" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="K20" s="3">
         <v>-3100</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-18600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-18200</v>
-      </c>
       <c r="I21" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J21" s="3">
-        <v>-14500</v>
+        <v>-14900</v>
       </c>
       <c r="K21" s="3">
         <v>-5900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E23" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F23" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G23" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H23" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I23" s="3">
         <v>1400</v>
       </c>
       <c r="J23" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K23" s="3">
         <v>-6200</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E26" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F26" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G26" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H26" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I26" s="3">
         <v>1400</v>
       </c>
       <c r="J26" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K26" s="3">
         <v>-6200</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E27" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F27" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G27" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H27" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I27" s="3">
         <v>1400</v>
       </c>
       <c r="J27" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K27" s="3">
         <v>-6200</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
         <v>-900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>-1700</v>
       </c>
       <c r="H32" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="J32" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K32" s="3">
         <v>3100</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E33" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F33" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G33" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H33" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I33" s="3">
         <v>1400</v>
       </c>
       <c r="J33" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K33" s="3">
         <v>-6200</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E35" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F35" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G35" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H35" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I35" s="3">
         <v>1400</v>
       </c>
       <c r="J35" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K35" s="3">
         <v>-6200</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>236600</v>
+        <v>242200</v>
       </c>
       <c r="E41" s="3">
-        <v>169400</v>
+        <v>173400</v>
       </c>
       <c r="F41" s="3">
-        <v>197100</v>
+        <v>201700</v>
       </c>
       <c r="G41" s="3">
-        <v>198200</v>
+        <v>202900</v>
       </c>
       <c r="H41" s="3">
-        <v>222100</v>
+        <v>227300</v>
       </c>
       <c r="I41" s="3">
-        <v>240000</v>
+        <v>245700</v>
       </c>
       <c r="J41" s="3">
-        <v>146500</v>
+        <v>149900</v>
       </c>
       <c r="K41" s="3">
         <v>93100</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E43" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G43" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H43" s="3">
         <v>3800</v>
       </c>
       <c r="I43" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J43" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -3176,7 +3176,7 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -3235,13 +3235,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E45" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -3250,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254100</v>
+        <v>260100</v>
       </c>
       <c r="E46" s="3">
-        <v>180500</v>
+        <v>184700</v>
       </c>
       <c r="F46" s="3">
-        <v>205900</v>
+        <v>210700</v>
       </c>
       <c r="G46" s="3">
-        <v>202700</v>
+        <v>207500</v>
       </c>
       <c r="H46" s="3">
-        <v>226600</v>
+        <v>231900</v>
       </c>
       <c r="I46" s="3">
-        <v>245300</v>
+        <v>251000</v>
       </c>
       <c r="J46" s="3">
-        <v>150400</v>
+        <v>153900</v>
       </c>
       <c r="K46" s="3">
         <v>105200</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="G47" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="H47" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I47" s="3">
-        <v>18700</v>
+        <v>19200</v>
       </c>
       <c r="J47" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="K47" s="3">
         <v>3200</v>
@@ -3466,22 +3466,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4500</v>
-      </c>
       <c r="I48" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J48" s="3">
         <v>3200</v>
@@ -3543,7 +3543,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
         <v>1600</v>
@@ -3552,7 +3552,7 @@
         <v>1600</v>
       </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>1700</v>
@@ -3561,7 +3561,7 @@
         <v>1700</v>
       </c>
       <c r="J49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260200</v>
+        <v>266300</v>
       </c>
       <c r="E54" s="3">
-        <v>192700</v>
+        <v>197300</v>
       </c>
       <c r="F54" s="3">
-        <v>224500</v>
+        <v>229800</v>
       </c>
       <c r="G54" s="3">
-        <v>219800</v>
+        <v>224900</v>
       </c>
       <c r="H54" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="I54" s="3">
-        <v>269900</v>
+        <v>276200</v>
       </c>
       <c r="J54" s="3">
-        <v>175300</v>
+        <v>179400</v>
       </c>
       <c r="K54" s="3">
         <v>112000</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="E57" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="F57" s="3">
-        <v>18800</v>
+        <v>19300</v>
       </c>
       <c r="G57" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="H57" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="I57" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J57" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="K57" s="3">
         <v>8400</v>
@@ -4140,10 +4140,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E58" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F58" s="3">
         <v>1300</v>
@@ -4155,7 +4155,7 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35000</v>
+        <v>35900</v>
       </c>
       <c r="E59" s="3">
-        <v>41500</v>
+        <v>42500</v>
       </c>
       <c r="F59" s="3">
-        <v>44300</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>51700</v>
+        <v>52900</v>
       </c>
       <c r="H59" s="3">
-        <v>50600</v>
+        <v>51800</v>
       </c>
       <c r="I59" s="3">
-        <v>50800</v>
+        <v>52000</v>
       </c>
       <c r="J59" s="3">
-        <v>54900</v>
+        <v>56200</v>
       </c>
       <c r="K59" s="3">
         <v>36500</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51900</v>
+        <v>53100</v>
       </c>
       <c r="E60" s="3">
-        <v>57600</v>
+        <v>59000</v>
       </c>
       <c r="F60" s="3">
-        <v>64400</v>
+        <v>65900</v>
       </c>
       <c r="G60" s="3">
-        <v>66100</v>
+        <v>67700</v>
       </c>
       <c r="H60" s="3">
-        <v>67000</v>
+        <v>68600</v>
       </c>
       <c r="I60" s="3">
-        <v>62400</v>
+        <v>63800</v>
       </c>
       <c r="J60" s="3">
-        <v>66900</v>
+        <v>68400</v>
       </c>
       <c r="K60" s="3">
         <v>46900</v>
@@ -4371,22 +4371,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14600</v>
+        <v>15000</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="F61" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G61" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="H61" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="I61" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="J61" s="3">
         <v>700</v>
@@ -4451,22 +4451,22 @@
         <v>1400</v>
       </c>
       <c r="E62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G62" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="H62" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="I62" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="J62" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="K62" s="3">
         <v>15800</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>67900</v>
+        <v>69500</v>
       </c>
       <c r="E66" s="3">
-        <v>75600</v>
+        <v>77400</v>
       </c>
       <c r="F66" s="3">
-        <v>89000</v>
+        <v>91000</v>
       </c>
       <c r="G66" s="3">
-        <v>86300</v>
+        <v>88300</v>
       </c>
       <c r="H66" s="3">
-        <v>96900</v>
+        <v>99200</v>
       </c>
       <c r="I66" s="3">
-        <v>101500</v>
+        <v>103900</v>
       </c>
       <c r="J66" s="3">
-        <v>103500</v>
+        <v>105900</v>
       </c>
       <c r="K66" s="3">
         <v>63200</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>200700</v>
+        <v>205400</v>
       </c>
       <c r="E72" s="3">
-        <v>128000</v>
+        <v>131000</v>
       </c>
       <c r="F72" s="3">
-        <v>140300</v>
+        <v>143600</v>
       </c>
       <c r="G72" s="3">
-        <v>139400</v>
+        <v>142700</v>
       </c>
       <c r="H72" s="3">
-        <v>152900</v>
+        <v>156500</v>
       </c>
       <c r="I72" s="3">
-        <v>166700</v>
+        <v>170700</v>
       </c>
       <c r="J72" s="3">
-        <v>69100</v>
+        <v>70700</v>
       </c>
       <c r="K72" s="3">
         <v>46000</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>192300</v>
+        <v>196800</v>
       </c>
       <c r="E76" s="3">
-        <v>117100</v>
+        <v>119900</v>
       </c>
       <c r="F76" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="G76" s="3">
-        <v>133500</v>
+        <v>136600</v>
       </c>
       <c r="H76" s="3">
-        <v>150500</v>
+        <v>154000</v>
       </c>
       <c r="I76" s="3">
-        <v>168400</v>
+        <v>172400</v>
       </c>
       <c r="J76" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="K76" s="3">
         <v>48800</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-19400</v>
+        <v>-19800</v>
       </c>
       <c r="E81" s="3">
-        <v>-16600</v>
+        <v>-17000</v>
       </c>
       <c r="F81" s="3">
-        <v>-23000</v>
+        <v>-23600</v>
       </c>
       <c r="G81" s="3">
-        <v>-17100</v>
+        <v>-17500</v>
       </c>
       <c r="H81" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="I81" s="3">
         <v>1400</v>
       </c>
       <c r="J81" s="3">
-        <v>-14800</v>
+        <v>-15200</v>
       </c>
       <c r="K81" s="3">
         <v>-6200</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-26400</v>
+        <v>-27000</v>
       </c>
       <c r="E89" s="3">
-        <v>-28300</v>
+        <v>-29000</v>
       </c>
       <c r="F89" s="3">
-        <v>-27600</v>
+        <v>-28200</v>
       </c>
       <c r="G89" s="3">
-        <v>-25500</v>
+        <v>-26100</v>
       </c>
       <c r="H89" s="3">
-        <v>-17300</v>
+        <v>-17700</v>
       </c>
       <c r="I89" s="3">
-        <v>-16000</v>
+        <v>-16400</v>
       </c>
       <c r="J89" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="K89" s="3">
         <v>-3700</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
       </c>
       <c r="J94" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -7033,13 +7033,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>89500</v>
+        <v>91700</v>
       </c>
       <c r="E100" s="3">
         <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -7048,10 +7048,10 @@
         <v>1100</v>
       </c>
       <c r="I100" s="3">
-        <v>104900</v>
+        <v>107400</v>
       </c>
       <c r="J100" s="3">
-        <v>38000</v>
+        <v>38900</v>
       </c>
       <c r="K100" s="3">
         <v>12000</v>
@@ -7110,7 +7110,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -7125,10 +7125,10 @@
         <v>-1200</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="J101" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K101" s="3">
         <v>-2800</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>67200</v>
+        <v>68800</v>
       </c>
       <c r="E102" s="3">
-        <v>-27700</v>
+        <v>-28400</v>
       </c>
       <c r="F102" s="3">
         <v>-1100</v>
       </c>
       <c r="G102" s="3">
-        <v>-23900</v>
+        <v>-24400</v>
       </c>
       <c r="H102" s="3">
-        <v>-17900</v>
+        <v>-18400</v>
       </c>
       <c r="I102" s="3">
-        <v>93600</v>
+        <v>95800</v>
       </c>
       <c r="J102" s="3">
-        <v>57000</v>
+        <v>58400</v>
       </c>
       <c r="K102" s="3">
         <v>5300</v>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,199 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7500</v>
+        <v>15800</v>
       </c>
       <c r="E8" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F8" s="3">
-        <v>10500</v>
+        <v>8500</v>
       </c>
       <c r="G8" s="3">
-        <v>8900</v>
+        <v>10900</v>
       </c>
       <c r="H8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>26900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
-      </c>
-      <c r="W8" s="3">
-        <v>600</v>
       </c>
       <c r="X8" s="3">
         <v>600</v>
       </c>
       <c r="Y8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>21300</v>
+        <v>27600</v>
       </c>
       <c r="E12" s="3">
-        <v>18800</v>
+        <v>22000</v>
       </c>
       <c r="F12" s="3">
-        <v>28200</v>
+        <v>19400</v>
       </c>
       <c r="G12" s="3">
-        <v>21000</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="I12" s="3">
-        <v>11600</v>
+        <v>23100</v>
       </c>
       <c r="J12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K12" s="3">
         <v>17100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>13700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>14000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>5200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,27 +1220,27 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1236,8 +1256,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29600</v>
+        <v>36100</v>
       </c>
       <c r="E17" s="3">
-        <v>25700</v>
+        <v>30600</v>
       </c>
       <c r="F17" s="3">
-        <v>35200</v>
+        <v>26600</v>
       </c>
       <c r="G17" s="3">
-        <v>27800</v>
+        <v>36500</v>
       </c>
       <c r="H17" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="I17" s="3">
-        <v>16100</v>
+        <v>28500</v>
       </c>
       <c r="J17" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K17" s="3">
         <v>20900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22100</v>
+        <v>-20300</v>
       </c>
       <c r="E18" s="3">
-        <v>-17500</v>
+        <v>-22900</v>
       </c>
       <c r="F18" s="3">
-        <v>-24700</v>
+        <v>-18100</v>
       </c>
       <c r="G18" s="3">
-        <v>-18900</v>
+        <v>-25600</v>
       </c>
       <c r="H18" s="3">
-        <v>-17600</v>
+        <v>-19600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4100</v>
+        <v>-18200</v>
       </c>
       <c r="J18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
-        <v>1700</v>
-      </c>
       <c r="H20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>5700</v>
-      </c>
       <c r="J20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-19100</v>
+        <v>-16600</v>
       </c>
       <c r="E21" s="3">
-        <v>-16300</v>
+        <v>-19800</v>
       </c>
       <c r="F21" s="3">
-        <v>-22900</v>
+        <v>-16900</v>
       </c>
       <c r="G21" s="3">
-        <v>-16900</v>
+        <v>-23800</v>
       </c>
       <c r="H21" s="3">
-        <v>-18600</v>
+        <v>-17500</v>
       </c>
       <c r="I21" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="J21" s="3">
         <v>1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-13000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-8500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-8800</v>
       </c>
       <c r="Y21" s="3">
         <v>-8800</v>
       </c>
       <c r="Z21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1755,7 @@
         <v>400</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
@@ -1724,16 +1764,16 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1745,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1760,105 +1800,111 @@
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-19800</v>
       </c>
-      <c r="E23" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
-      </c>
       <c r="J23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-12700</v>
       </c>
       <c r="P23" s="3">
         <v>-12700</v>
       </c>
       <c r="Q23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R23" s="3">
         <v>2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-8900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1889,11 +1935,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1929,13 +1975,16 @@
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-19800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1400</v>
-      </c>
       <c r="J26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-12700</v>
       </c>
       <c r="P26" s="3">
         <v>-12700</v>
       </c>
       <c r="Q26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R26" s="3">
         <v>2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-19800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1400</v>
-      </c>
       <c r="J27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-12700</v>
       </c>
       <c r="P27" s="3">
         <v>-12700</v>
       </c>
       <c r="Q27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R27" s="3">
         <v>2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2700</v>
+        <v>-3300</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-5700</v>
-      </c>
       <c r="J32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-19800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1400</v>
-      </c>
       <c r="J33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-12700</v>
       </c>
       <c r="P33" s="3">
         <v>-12700</v>
       </c>
       <c r="Q33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R33" s="3">
         <v>2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-19800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1400</v>
-      </c>
       <c r="J35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-12700</v>
       </c>
       <c r="P35" s="3">
         <v>-12700</v>
       </c>
       <c r="Q35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R35" s="3">
         <v>2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,265 +3007,275 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>242200</v>
+        <v>235800</v>
       </c>
       <c r="E41" s="3">
-        <v>173400</v>
+        <v>251000</v>
       </c>
       <c r="F41" s="3">
-        <v>201700</v>
+        <v>179700</v>
       </c>
       <c r="G41" s="3">
-        <v>202900</v>
+        <v>209100</v>
       </c>
       <c r="H41" s="3">
-        <v>227300</v>
+        <v>210300</v>
       </c>
       <c r="I41" s="3">
-        <v>245700</v>
+        <v>235600</v>
       </c>
       <c r="J41" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K41" s="3">
         <v>149900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>87800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>90300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>111200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>112200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>60800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>44700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>49900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>57500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>41600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>8000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>9500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>4900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>5500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>11100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5600</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="F43" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>3800</v>
+        <v>5100</v>
       </c>
       <c r="H43" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="I43" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
-        <v>400</v>
-      </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -3188,10 +3284,10 @@
         <v>400</v>
       </c>
       <c r="N44" s="3">
+        <v>400</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -3200,13 +3296,13 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>400</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -3221,170 +3317,179 @@
         <v>300</v>
       </c>
       <c r="Y44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z44" s="3">
         <v>200</v>
       </c>
       <c r="AA44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11700</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>6200</v>
+        <v>12100</v>
       </c>
       <c r="F45" s="3">
-        <v>3600</v>
+        <v>6400</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2200</v>
-      </c>
-      <c r="U45" s="3">
-        <v>900</v>
       </c>
       <c r="V45" s="3">
         <v>900</v>
       </c>
       <c r="W45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="X45" s="3">
         <v>600</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>260100</v>
+        <v>243900</v>
       </c>
       <c r="E46" s="3">
-        <v>184700</v>
+        <v>269600</v>
       </c>
       <c r="F46" s="3">
-        <v>210700</v>
+        <v>191400</v>
       </c>
       <c r="G46" s="3">
-        <v>207500</v>
+        <v>218400</v>
       </c>
       <c r="H46" s="3">
-        <v>231900</v>
+        <v>215100</v>
       </c>
       <c r="I46" s="3">
-        <v>251000</v>
+        <v>240400</v>
       </c>
       <c r="J46" s="3">
+        <v>260200</v>
+      </c>
+      <c r="K46" s="3">
         <v>153900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>105200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>98700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>92800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>113300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>122700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>44500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>56100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>63900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>47100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>49600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>58500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>65900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>56200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,59 +3497,59 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>12600</v>
+        <v>6500</v>
       </c>
       <c r="G47" s="3">
-        <v>11400</v>
+        <v>13100</v>
       </c>
       <c r="H47" s="3">
-        <v>15000</v>
+        <v>11900</v>
       </c>
       <c r="I47" s="3">
-        <v>19200</v>
+        <v>15500</v>
       </c>
       <c r="J47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K47" s="3">
         <v>20500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>8400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>7800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3460,76 +3565,79 @@
       <c r="AA47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4300</v>
-      </c>
       <c r="J48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1400</v>
       </c>
       <c r="T48" s="3">
         <v>1400</v>
       </c>
       <c r="U48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1000</v>
       </c>
       <c r="Z48" s="3">
         <v>1000</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,7 +3660,7 @@
         <v>1600</v>
       </c>
       <c r="F49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -3558,13 +3669,13 @@
         <v>1700</v>
       </c>
       <c r="I49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J49" s="3">
         <v>1800</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3573,7 +3684,7 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -3582,7 +3693,7 @@
         <v>200</v>
       </c>
       <c r="Q49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>266300</v>
+        <v>250100</v>
       </c>
       <c r="E54" s="3">
-        <v>197300</v>
+        <v>276000</v>
       </c>
       <c r="F54" s="3">
-        <v>229800</v>
+        <v>204500</v>
       </c>
       <c r="G54" s="3">
-        <v>224900</v>
+        <v>238200</v>
       </c>
       <c r="H54" s="3">
-        <v>253200</v>
+        <v>233100</v>
       </c>
       <c r="I54" s="3">
-        <v>276200</v>
+        <v>262400</v>
       </c>
       <c r="J54" s="3">
+        <v>286300</v>
+      </c>
+      <c r="K54" s="3">
         <v>179400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>112000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>105000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>131200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>99900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>129800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>137400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>54300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>65900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>50900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>59700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>67000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>57200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,135 +4187,139 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="E57" s="3">
-        <v>13800</v>
+        <v>13500</v>
       </c>
       <c r="F57" s="3">
-        <v>19300</v>
+        <v>14300</v>
       </c>
       <c r="G57" s="3">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="H57" s="3">
-        <v>16200</v>
+        <v>14500</v>
       </c>
       <c r="I57" s="3">
-        <v>11200</v>
+        <v>16800</v>
       </c>
       <c r="J57" s="3">
         <v>11600</v>
       </c>
       <c r="K57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>12500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>9200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>8000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4200</v>
+        <v>5800</v>
       </c>
       <c r="E58" s="3">
-        <v>2700</v>
+        <v>4300</v>
       </c>
       <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>3400</v>
       </c>
       <c r="T58" s="3">
         <v>3400</v>
@@ -4194,307 +4328,319 @@
         <v>3400</v>
       </c>
       <c r="V58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35900</v>
+        <v>21400</v>
       </c>
       <c r="E59" s="3">
-        <v>42500</v>
+        <v>37200</v>
       </c>
       <c r="F59" s="3">
-        <v>45300</v>
+        <v>44000</v>
       </c>
       <c r="G59" s="3">
-        <v>52900</v>
+        <v>47000</v>
       </c>
       <c r="H59" s="3">
-        <v>51800</v>
+        <v>54800</v>
       </c>
       <c r="I59" s="3">
-        <v>52000</v>
+        <v>53600</v>
       </c>
       <c r="J59" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K59" s="3">
         <v>56200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>25300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>25500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>21300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>18500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
       <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53100</v>
+        <v>43200</v>
       </c>
       <c r="E60" s="3">
-        <v>59000</v>
+        <v>55000</v>
       </c>
       <c r="F60" s="3">
-        <v>65900</v>
+        <v>61100</v>
       </c>
       <c r="G60" s="3">
-        <v>67700</v>
+        <v>68300</v>
       </c>
       <c r="H60" s="3">
-        <v>68600</v>
+        <v>70100</v>
       </c>
       <c r="I60" s="3">
-        <v>63800</v>
+        <v>71100</v>
       </c>
       <c r="J60" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K60" s="3">
         <v>68400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>46900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>33700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>38200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>41100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>32500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E61" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="F61" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="G61" s="3">
-        <v>10600</v>
+        <v>18400</v>
       </c>
       <c r="H61" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="I61" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="J61" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>600</v>
       </c>
       <c r="O61" s="3">
         <v>600</v>
       </c>
       <c r="P61" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>2200</v>
       </c>
       <c r="G62" s="3">
-        <v>10000</v>
+        <v>7600</v>
       </c>
       <c r="H62" s="3">
-        <v>19800</v>
+        <v>10400</v>
       </c>
       <c r="I62" s="3">
-        <v>29100</v>
+        <v>20500</v>
       </c>
       <c r="J62" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K62" s="3">
         <v>36700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44400</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4510,8 +4656,8 @@
       <c r="X62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69500</v>
+        <v>58500</v>
       </c>
       <c r="E66" s="3">
-        <v>77400</v>
+        <v>72000</v>
       </c>
       <c r="F66" s="3">
-        <v>91000</v>
+        <v>80200</v>
       </c>
       <c r="G66" s="3">
-        <v>88300</v>
+        <v>94400</v>
       </c>
       <c r="H66" s="3">
-        <v>99200</v>
+        <v>91500</v>
       </c>
       <c r="I66" s="3">
-        <v>103900</v>
+        <v>102800</v>
       </c>
       <c r="J66" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K66" s="3">
         <v>105900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>62900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>71800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>81200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>79600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>90000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>13700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>13000</v>
       </c>
       <c r="W66" s="3">
         <v>13000</v>
       </c>
       <c r="X66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Y66" s="3">
         <v>14700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>205400</v>
+        <v>196300</v>
       </c>
       <c r="E72" s="3">
-        <v>131000</v>
+        <v>212900</v>
       </c>
       <c r="F72" s="3">
-        <v>143600</v>
+        <v>135800</v>
       </c>
       <c r="G72" s="3">
-        <v>142700</v>
+        <v>148900</v>
       </c>
       <c r="H72" s="3">
-        <v>156500</v>
+        <v>147900</v>
       </c>
       <c r="I72" s="3">
-        <v>170700</v>
+        <v>162200</v>
       </c>
       <c r="J72" s="3">
+        <v>176900</v>
+      </c>
+      <c r="K72" s="3">
         <v>70700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>46300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>43200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>51100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>37400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>44500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>55300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>45100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>196800</v>
+        <v>191600</v>
       </c>
       <c r="E76" s="3">
-        <v>119900</v>
+        <v>204000</v>
       </c>
       <c r="F76" s="3">
-        <v>138800</v>
+        <v>124200</v>
       </c>
       <c r="G76" s="3">
-        <v>136600</v>
+        <v>143800</v>
       </c>
       <c r="H76" s="3">
-        <v>154000</v>
+        <v>141600</v>
       </c>
       <c r="I76" s="3">
-        <v>172400</v>
+        <v>159600</v>
       </c>
       <c r="J76" s="3">
+        <v>178600</v>
+      </c>
+      <c r="K76" s="3">
         <v>73500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>48800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>26000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>59600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>45000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>55900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>45500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-19800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-23600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-17500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1400</v>
-      </c>
       <c r="J81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-12700</v>
       </c>
       <c r="P81" s="3">
         <v>-12700</v>
       </c>
       <c r="Q81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="R81" s="3">
         <v>2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,7 +6028,7 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -5838,7 +6037,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5859,10 +6058,10 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-27000</v>
+        <v>-20100</v>
       </c>
       <c r="E89" s="3">
-        <v>-29000</v>
+        <v>-28000</v>
       </c>
       <c r="F89" s="3">
-        <v>-28200</v>
+        <v>-30100</v>
       </c>
       <c r="G89" s="3">
-        <v>-26100</v>
+        <v>-29200</v>
       </c>
       <c r="H89" s="3">
-        <v>-17700</v>
+        <v>-27100</v>
       </c>
       <c r="I89" s="3">
-        <v>-16400</v>
+        <v>-18300</v>
       </c>
       <c r="J89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K89" s="3">
         <v>16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>88000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-10800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-9100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6394,46 +6615,46 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -6442,16 +6663,16 @@
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,58 +6840,61 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2400</v>
-      </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>9200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>8900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-20800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
@@ -6673,25 +6903,28 @@
         <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W94" s="3">
         <v>9300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>91700</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>28000</v>
-      </c>
       <c r="G100" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>1100</v>
-      </c>
       <c r="I100" s="3">
-        <v>107400</v>
+        <v>1200</v>
       </c>
       <c r="J100" s="3">
+        <v>111300</v>
+      </c>
+      <c r="K100" s="3">
         <v>38900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-800</v>
       </c>
       <c r="S100" s="3">
         <v>-800</v>
       </c>
       <c r="T100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>24900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>19300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>900</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>300</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T101" s="3">
+        <v>300</v>
+      </c>
+      <c r="U101" s="3">
         <v>1400</v>
       </c>
-      <c r="N101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>700</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="V101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
-        <v>300</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="Y101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
-        <v>300</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68800</v>
+        <v>-15200</v>
       </c>
       <c r="E102" s="3">
-        <v>-28400</v>
+        <v>71300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1100</v>
+        <v>-29400</v>
       </c>
       <c r="G102" s="3">
-        <v>-24400</v>
+        <v>-1200</v>
       </c>
       <c r="H102" s="3">
-        <v>-18400</v>
+        <v>-25300</v>
       </c>
       <c r="I102" s="3">
-        <v>95800</v>
+        <v>-19000</v>
       </c>
       <c r="J102" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K102" s="3">
         <v>58400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>68300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>16000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15800</v>
+        <v>12100</v>
       </c>
       <c r="E8" s="3">
-        <v>7700</v>
+        <v>16000</v>
       </c>
       <c r="F8" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="G8" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="M8" s="3">
         <v>10900</v>
       </c>
-      <c r="H8" s="3">
-        <v>9200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>12400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>10900</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>26900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700</v>
-      </c>
-      <c r="X8" s="3">
-        <v>600</v>
       </c>
       <c r="Y8" s="3">
         <v>600</v>
       </c>
       <c r="Z8" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>27600</v>
+        <v>36100</v>
       </c>
       <c r="E12" s="3">
-        <v>22000</v>
+        <v>28100</v>
       </c>
       <c r="F12" s="3">
-        <v>19400</v>
+        <v>22400</v>
       </c>
       <c r="G12" s="3">
-        <v>29300</v>
+        <v>19800</v>
       </c>
       <c r="H12" s="3">
-        <v>21800</v>
+        <v>29800</v>
       </c>
       <c r="I12" s="3">
-        <v>23100</v>
+        <v>22200</v>
       </c>
       <c r="J12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K12" s="3">
         <v>12100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>9400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,27 +1242,27 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1259,8 +1278,8 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36100</v>
+        <v>44400</v>
       </c>
       <c r="E17" s="3">
-        <v>30600</v>
+        <v>36700</v>
       </c>
       <c r="F17" s="3">
-        <v>26600</v>
+        <v>31200</v>
       </c>
       <c r="G17" s="3">
-        <v>36500</v>
+        <v>27100</v>
       </c>
       <c r="H17" s="3">
-        <v>28800</v>
+        <v>37200</v>
       </c>
       <c r="I17" s="3">
-        <v>28500</v>
+        <v>29300</v>
       </c>
       <c r="J17" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K17" s="3">
         <v>16700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20300</v>
+        <v>-32400</v>
       </c>
       <c r="E18" s="3">
-        <v>-22900</v>
+        <v>-20700</v>
       </c>
       <c r="F18" s="3">
-        <v>-18100</v>
+        <v>-23300</v>
       </c>
       <c r="G18" s="3">
-        <v>-25600</v>
+        <v>-18500</v>
       </c>
       <c r="H18" s="3">
-        <v>-19600</v>
+        <v>-26100</v>
       </c>
       <c r="I18" s="3">
-        <v>-18200</v>
+        <v>-20000</v>
       </c>
       <c r="J18" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-6600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,173 +1615,180 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3300</v>
+        <v>-3100</v>
       </c>
       <c r="E20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16600</v>
+        <v>-33500</v>
       </c>
       <c r="E21" s="3">
-        <v>-19800</v>
+        <v>-16900</v>
       </c>
       <c r="F21" s="3">
-        <v>-16900</v>
+        <v>-20100</v>
       </c>
       <c r="G21" s="3">
-        <v>-23800</v>
+        <v>-17200</v>
       </c>
       <c r="H21" s="3">
-        <v>-17500</v>
+        <v>-24200</v>
       </c>
       <c r="I21" s="3">
-        <v>-19300</v>
+        <v>-17800</v>
       </c>
       <c r="J21" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>10700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-13000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-8500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-8700</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-8800</v>
       </c>
       <c r="Z21" s="3">
         <v>-8800</v>
       </c>
       <c r="AA21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
         <v>400</v>
@@ -1758,7 +1797,7 @@
         <v>400</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1767,16 +1806,16 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1788,7 +1827,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1803,108 +1842,114 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E23" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F23" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G23" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H23" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I23" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J23" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q23" s="3">
         <v>-12700</v>
       </c>
       <c r="R23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S23" s="3">
         <v>2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>10400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1938,11 +1983,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1978,13 +2023,16 @@
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E26" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F26" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G26" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H26" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I26" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J26" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q26" s="3">
         <v>-12700</v>
       </c>
       <c r="R26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S26" s="3">
         <v>2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E27" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F27" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G27" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H27" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I27" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J27" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q27" s="3">
         <v>-12700</v>
       </c>
       <c r="R27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S27" s="3">
         <v>2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3300</v>
+        <v>3100</v>
       </c>
       <c r="E32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E33" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F33" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G33" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H33" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I33" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J33" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q33" s="3">
         <v>-12700</v>
       </c>
       <c r="R33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S33" s="3">
         <v>2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E35" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F35" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G35" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H35" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I35" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J35" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q35" s="3">
         <v>-12700</v>
       </c>
       <c r="R35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S35" s="3">
         <v>2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>235800</v>
+        <v>204900</v>
       </c>
       <c r="E41" s="3">
-        <v>251000</v>
+        <v>240000</v>
       </c>
       <c r="F41" s="3">
-        <v>179700</v>
+        <v>255500</v>
       </c>
       <c r="G41" s="3">
-        <v>209100</v>
+        <v>182900</v>
       </c>
       <c r="H41" s="3">
-        <v>210300</v>
+        <v>212800</v>
       </c>
       <c r="I41" s="3">
-        <v>235600</v>
+        <v>214000</v>
       </c>
       <c r="J41" s="3">
+        <v>239800</v>
+      </c>
+      <c r="K41" s="3">
         <v>254600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>149900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>87800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>90300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>111200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>70000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>78400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>112200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>60800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>49900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>57500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>41600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3118,138 +3207,144 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>9500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>4900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>5500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>11100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
-        <v>5800</v>
-      </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>5900</v>
       </c>
       <c r="G43" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
+        <v>5200</v>
       </c>
       <c r="I43" s="3">
         <v>4000</v>
       </c>
       <c r="J43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3257,28 +3352,28 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
-        <v>400</v>
-      </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
-        <v>600</v>
-      </c>
       <c r="J44" s="3">
+        <v>700</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -3287,10 +3382,10 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
+        <v>400</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -3299,13 +3394,13 @@
         <v>400</v>
       </c>
       <c r="S44" s="3">
+        <v>400</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -3320,176 +3415,185 @@
         <v>300</v>
       </c>
       <c r="Z44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA44" s="3">
         <v>200</v>
       </c>
       <c r="AB44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
-        <v>12100</v>
+        <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>6400</v>
+        <v>12300</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>6500</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2200</v>
-      </c>
-      <c r="V45" s="3">
-        <v>900</v>
       </c>
       <c r="W45" s="3">
         <v>900</v>
       </c>
       <c r="X45" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="Y45" s="3">
         <v>600</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>243900</v>
+        <v>211100</v>
       </c>
       <c r="E46" s="3">
-        <v>269600</v>
+        <v>248300</v>
       </c>
       <c r="F46" s="3">
-        <v>191400</v>
+        <v>274400</v>
       </c>
       <c r="G46" s="3">
-        <v>218400</v>
+        <v>194800</v>
       </c>
       <c r="H46" s="3">
-        <v>215100</v>
+        <v>222300</v>
       </c>
       <c r="I46" s="3">
-        <v>240400</v>
+        <v>218900</v>
       </c>
       <c r="J46" s="3">
+        <v>244700</v>
+      </c>
+      <c r="K46" s="3">
         <v>260200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>153900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>105200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>123600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>92800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>122700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>131200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>44500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>56100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>63900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>47100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>49600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>58500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>65900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>56200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3500,59 +3604,59 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>13100</v>
+        <v>6600</v>
       </c>
       <c r="H47" s="3">
-        <v>11900</v>
+        <v>13300</v>
       </c>
       <c r="I47" s="3">
-        <v>15500</v>
+        <v>12100</v>
       </c>
       <c r="J47" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>8400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>8300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7800</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3568,79 +3672,82 @@
       <c r="AB47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1400</v>
       </c>
       <c r="U48" s="3">
         <v>1400</v>
       </c>
       <c r="V48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>1000</v>
       </c>
       <c r="AA48" s="3">
         <v>1000</v>
@@ -3648,16 +3755,19 @@
       <c r="AB48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F49" s="3">
         <v>1700</v>
@@ -3678,7 +3788,7 @@
         <v>1800</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -3687,7 +3797,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3696,7 +3806,7 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S49" s="3">
         <v>100</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>250100</v>
+        <v>215900</v>
       </c>
       <c r="E54" s="3">
-        <v>276000</v>
+        <v>254600</v>
       </c>
       <c r="F54" s="3">
-        <v>204500</v>
+        <v>281000</v>
       </c>
       <c r="G54" s="3">
-        <v>238200</v>
+        <v>208100</v>
       </c>
       <c r="H54" s="3">
-        <v>233100</v>
+        <v>242400</v>
       </c>
       <c r="I54" s="3">
-        <v>262400</v>
+        <v>237300</v>
       </c>
       <c r="J54" s="3">
+        <v>267100</v>
+      </c>
+      <c r="K54" s="3">
         <v>286300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>179400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>105000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>131200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>99900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>129800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>137400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>54300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>65900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>48400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>50900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>59700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>67000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>57200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,141 +4317,145 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="E57" s="3">
-        <v>13500</v>
+        <v>16200</v>
       </c>
       <c r="F57" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="G57" s="3">
-        <v>20000</v>
+        <v>14600</v>
       </c>
       <c r="H57" s="3">
-        <v>14500</v>
+        <v>20300</v>
       </c>
       <c r="I57" s="3">
-        <v>16800</v>
+        <v>14800</v>
       </c>
       <c r="J57" s="3">
-        <v>11600</v>
+        <v>17100</v>
       </c>
       <c r="K57" s="3">
         <v>11600</v>
       </c>
       <c r="L57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>12500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>9200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="E58" s="3">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="F58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
-        <v>1300</v>
-      </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3400</v>
       </c>
       <c r="U58" s="3">
         <v>3400</v>
@@ -4331,319 +4464,331 @@
         <v>3400</v>
       </c>
       <c r="W58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21400</v>
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <v>37200</v>
+        <v>21800</v>
       </c>
       <c r="F59" s="3">
-        <v>44000</v>
+        <v>37800</v>
       </c>
       <c r="G59" s="3">
-        <v>47000</v>
+        <v>44800</v>
       </c>
       <c r="H59" s="3">
-        <v>54800</v>
+        <v>47800</v>
       </c>
       <c r="I59" s="3">
-        <v>53600</v>
+        <v>55800</v>
       </c>
       <c r="J59" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K59" s="3">
         <v>53900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>56200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>25300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>25500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>21300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>18500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>500</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
+        <v>500</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43200</v>
+        <v>37300</v>
       </c>
       <c r="E60" s="3">
-        <v>55000</v>
+        <v>44000</v>
       </c>
       <c r="F60" s="3">
-        <v>61100</v>
+        <v>56000</v>
       </c>
       <c r="G60" s="3">
-        <v>68300</v>
+        <v>62200</v>
       </c>
       <c r="H60" s="3">
-        <v>70100</v>
+        <v>69500</v>
       </c>
       <c r="I60" s="3">
-        <v>71100</v>
+        <v>71400</v>
       </c>
       <c r="J60" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K60" s="3">
         <v>66200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>68400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>33700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>38200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>41100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>32500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14000</v>
+        <v>12800</v>
       </c>
       <c r="E61" s="3">
-        <v>15500</v>
+        <v>14200</v>
       </c>
       <c r="F61" s="3">
-        <v>16900</v>
+        <v>15800</v>
       </c>
       <c r="G61" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="H61" s="3">
-        <v>11000</v>
+        <v>18800</v>
       </c>
       <c r="I61" s="3">
         <v>11200</v>
       </c>
       <c r="J61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K61" s="3">
         <v>11300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
-      </c>
-      <c r="O61" s="3">
-        <v>600</v>
       </c>
       <c r="P61" s="3">
         <v>600</v>
       </c>
       <c r="Q61" s="3">
+        <v>600</v>
+      </c>
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
-        <v>7600</v>
-      </c>
       <c r="H62" s="3">
-        <v>10400</v>
+        <v>7800</v>
       </c>
       <c r="I62" s="3">
-        <v>20500</v>
+        <v>10600</v>
       </c>
       <c r="J62" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K62" s="3">
         <v>30200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>47900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4659,8 +4804,8 @@
       <c r="Y62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58500</v>
+        <v>51300</v>
       </c>
       <c r="E66" s="3">
-        <v>72000</v>
+        <v>59500</v>
       </c>
       <c r="F66" s="3">
-        <v>80200</v>
+        <v>73300</v>
       </c>
       <c r="G66" s="3">
-        <v>94400</v>
+        <v>81700</v>
       </c>
       <c r="H66" s="3">
-        <v>91500</v>
+        <v>96000</v>
       </c>
       <c r="I66" s="3">
-        <v>102800</v>
+        <v>93100</v>
       </c>
       <c r="J66" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K66" s="3">
         <v>107600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>105900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>63200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>62900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>71800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>81200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>79600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>90000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>13700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>13000</v>
       </c>
       <c r="X66" s="3">
         <v>13000</v>
       </c>
       <c r="Y66" s="3">
+        <v>13000</v>
+      </c>
+      <c r="Z66" s="3">
         <v>14700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>11700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>196300</v>
+        <v>164400</v>
       </c>
       <c r="E72" s="3">
-        <v>212900</v>
+        <v>199800</v>
       </c>
       <c r="F72" s="3">
-        <v>135800</v>
+        <v>216700</v>
       </c>
       <c r="G72" s="3">
-        <v>148900</v>
+        <v>138200</v>
       </c>
       <c r="H72" s="3">
-        <v>147900</v>
+        <v>151500</v>
       </c>
       <c r="I72" s="3">
-        <v>162200</v>
+        <v>150500</v>
       </c>
       <c r="J72" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K72" s="3">
         <v>176900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>70700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>46000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>43200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>51100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>37400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>44500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>55300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>45100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>191600</v>
+        <v>164700</v>
       </c>
       <c r="E76" s="3">
-        <v>204000</v>
+        <v>195000</v>
       </c>
       <c r="F76" s="3">
-        <v>124200</v>
+        <v>207600</v>
       </c>
       <c r="G76" s="3">
-        <v>143800</v>
+        <v>126400</v>
       </c>
       <c r="H76" s="3">
-        <v>141600</v>
+        <v>146400</v>
       </c>
       <c r="I76" s="3">
-        <v>159600</v>
+        <v>144200</v>
       </c>
       <c r="J76" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K76" s="3">
         <v>178600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>48800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>50200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>52300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>59600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>45000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>55900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>45500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17400</v>
+        <v>-36000</v>
       </c>
       <c r="E81" s="3">
-        <v>-20500</v>
+        <v>-17800</v>
       </c>
       <c r="F81" s="3">
-        <v>-17600</v>
+        <v>-20900</v>
       </c>
       <c r="G81" s="3">
-        <v>-24400</v>
+        <v>-17900</v>
       </c>
       <c r="H81" s="3">
-        <v>-18100</v>
+        <v>-24900</v>
       </c>
       <c r="I81" s="3">
-        <v>-19800</v>
+        <v>-18400</v>
       </c>
       <c r="J81" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-12700</v>
       </c>
       <c r="Q81" s="3">
         <v>-12700</v>
       </c>
       <c r="R81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="S81" s="3">
         <v>2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6210,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -6031,16 +6229,16 @@
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -6061,10 +6259,10 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-20100</v>
+        <v>-33300</v>
       </c>
       <c r="E89" s="3">
-        <v>-28000</v>
+        <v>-20500</v>
       </c>
       <c r="F89" s="3">
-        <v>-30100</v>
+        <v>-28500</v>
       </c>
       <c r="G89" s="3">
-        <v>-29200</v>
+        <v>-30600</v>
       </c>
       <c r="H89" s="3">
-        <v>-27100</v>
+        <v>-29800</v>
       </c>
       <c r="I89" s="3">
-        <v>-18300</v>
+        <v>-27600</v>
       </c>
       <c r="J89" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>88000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-7700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,13 +6822,14 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6618,46 +6838,46 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="I91" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
@@ -6666,16 +6886,16 @@
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,52 +7081,52 @@
         <v>2300</v>
       </c>
       <c r="E94" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F94" s="3">
         <v>1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2500</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>9200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>8900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-20800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
@@ -6906,25 +7135,28 @@
         <v>-200</v>
       </c>
       <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X94" s="3">
         <v>9300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
-        <v>95000</v>
-      </c>
       <c r="F100" s="3">
+        <v>96700</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>29000</v>
-      </c>
       <c r="H100" s="3">
+        <v>29500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>111300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>38900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>32800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-800</v>
       </c>
       <c r="T100" s="3">
         <v>-800</v>
       </c>
       <c r="U100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>24900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>19300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>3200</v>
       </c>
-      <c r="E101" s="3">
-        <v>2800</v>
-      </c>
       <c r="F101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15200</v>
+        <v>-35100</v>
       </c>
       <c r="E102" s="3">
-        <v>71300</v>
+        <v>-15400</v>
       </c>
       <c r="F102" s="3">
-        <v>-29400</v>
+        <v>72600</v>
       </c>
       <c r="G102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-25300</v>
-      </c>
       <c r="I102" s="3">
-        <v>-19000</v>
+        <v>-25800</v>
       </c>
       <c r="J102" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K102" s="3">
         <v>99300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>58400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>41100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>68300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>16000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>AFMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,219 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
-        <v>16000</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11100</v>
-      </c>
       <c r="I8" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>12400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>13400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>26900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>36100</v>
+        <v>27400</v>
       </c>
       <c r="E12" s="3">
-        <v>28100</v>
+        <v>32000</v>
       </c>
       <c r="F12" s="3">
-        <v>22400</v>
+        <v>36300</v>
       </c>
       <c r="G12" s="3">
-        <v>19800</v>
+        <v>28300</v>
       </c>
       <c r="H12" s="3">
-        <v>29800</v>
+        <v>22600</v>
       </c>
       <c r="I12" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K12" s="3">
         <v>22200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>17100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>12100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>12500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>14600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>13700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>14100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>9400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>14000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>10800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>7900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>7000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>5200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>6700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>6100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>6400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>6700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,30 +1285,30 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1281,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44400</v>
+        <v>33400</v>
       </c>
       <c r="E17" s="3">
-        <v>36700</v>
+        <v>39000</v>
       </c>
       <c r="F17" s="3">
-        <v>31200</v>
+        <v>44700</v>
       </c>
       <c r="G17" s="3">
-        <v>27100</v>
+        <v>37000</v>
       </c>
       <c r="H17" s="3">
-        <v>37200</v>
+        <v>31400</v>
       </c>
       <c r="I17" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K17" s="3">
         <v>29300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>29000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>16700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>20900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>14000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>14700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>17800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>16900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>16800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>12200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>15500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>13800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>10300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>9300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>7300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>8700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>8200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>9000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>9200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32400</v>
+        <v>-31900</v>
       </c>
       <c r="E18" s="3">
-        <v>-20700</v>
+        <v>-34100</v>
       </c>
       <c r="F18" s="3">
-        <v>-23300</v>
+        <v>-32600</v>
       </c>
       <c r="G18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="L18" s="3">
         <v>-18500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-26100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-14400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-11900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>11300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-10000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-8700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-11800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,212 +1682,226 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="F20" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>400</v>
+      </c>
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U20" s="3">
-        <v>400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-33500</v>
+        <v>-31000</v>
       </c>
       <c r="E21" s="3">
-        <v>-16900</v>
+        <v>-34400</v>
       </c>
       <c r="F21" s="3">
-        <v>-20100</v>
+        <v>-33800</v>
       </c>
       <c r="G21" s="3">
-        <v>-17200</v>
+        <v>-17000</v>
       </c>
       <c r="H21" s="3">
-        <v>-24200</v>
+        <v>-20200</v>
       </c>
       <c r="I21" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-17800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-19600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-12400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-8700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-12300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>10700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-13000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-8500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-8600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-8800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-6300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1830,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1845,7 +1925,7 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
@@ -1854,102 +1934,114 @@
         <v>300</v>
       </c>
       <c r="Z22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA22" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E23" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F23" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G23" s="3">
         <v>-17900</v>
       </c>
       <c r="H23" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I23" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-18400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-20200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-12700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-12700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-12700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>10400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-13300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-8900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-9000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA23" s="3">
         <v>-9100</v>
       </c>
       <c r="AB23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1986,14 +2078,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -2026,13 +2118,19 @@
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E26" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F26" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G26" s="3">
         <v>-17900</v>
       </c>
       <c r="H26" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I26" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-18400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-6200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-12700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-12700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-12700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-13300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-8900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-9000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA26" s="3">
         <v>-9100</v>
       </c>
       <c r="AB26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E27" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F27" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G27" s="3">
         <v>-17900</v>
       </c>
       <c r="H27" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I27" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-18400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-6200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-12700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-12700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-12700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-13300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-8900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-9000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA27" s="3">
         <v>-9100</v>
       </c>
       <c r="AB27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T32" s="3">
+        <v>600</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>800</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E33" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F33" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G33" s="3">
         <v>-17900</v>
       </c>
       <c r="H33" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I33" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-18400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-6200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-12700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-12700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-12700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-13300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-8900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-9000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA33" s="3">
         <v>-9100</v>
       </c>
       <c r="AB33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E35" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F35" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G35" s="3">
         <v>-17900</v>
       </c>
       <c r="H35" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I35" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-18400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-6200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-12700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-12700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-12700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-13300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-8900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-9000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA35" s="3">
         <v>-9100</v>
       </c>
       <c r="AB35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>204900</v>
+        <v>130200</v>
       </c>
       <c r="E41" s="3">
-        <v>240000</v>
+        <v>169000</v>
       </c>
       <c r="F41" s="3">
-        <v>255500</v>
+        <v>206300</v>
       </c>
       <c r="G41" s="3">
-        <v>182900</v>
+        <v>241600</v>
       </c>
       <c r="H41" s="3">
-        <v>212800</v>
+        <v>257200</v>
       </c>
       <c r="I41" s="3">
+        <v>184100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K41" s="3">
         <v>214000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>239800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>254600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>149900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>93100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>87800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>90300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>111200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>70000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>78400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>74200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>112200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>41100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>52500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>60800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>44700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>37400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>49900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>57500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>41600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>41900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3210,194 +3390,206 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>8000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>8300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>10400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>19300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>37700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>16500</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>9500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>4900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>5500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>11100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
-        <v>5900</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I43" s="3">
         <v>4900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>9800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2800</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>2600</v>
       </c>
       <c r="AC43" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>400</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
       </c>
       <c r="R44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U44" s="3">
         <v>400</v>
@@ -3406,7 +3598,7 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
@@ -3418,251 +3610,269 @@
         <v>300</v>
       </c>
       <c r="AA44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC44" s="3">
         <v>200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2600</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
         <v>5700</v>
       </c>
       <c r="F45" s="3">
-        <v>12300</v>
+        <v>2700</v>
       </c>
       <c r="G45" s="3">
-        <v>6500</v>
+        <v>5700</v>
       </c>
       <c r="H45" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>2200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>600</v>
       </c>
       <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE45" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>211100</v>
+        <v>141800</v>
       </c>
       <c r="E46" s="3">
-        <v>248300</v>
+        <v>177600</v>
       </c>
       <c r="F46" s="3">
-        <v>274400</v>
+        <v>212600</v>
       </c>
       <c r="G46" s="3">
-        <v>194800</v>
+        <v>249900</v>
       </c>
       <c r="H46" s="3">
-        <v>222300</v>
+        <v>276200</v>
       </c>
       <c r="I46" s="3">
+        <v>196100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>223800</v>
+      </c>
+      <c r="K46" s="3">
         <v>218900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>244700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>260200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>153900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>105200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>98700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>99000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>123600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>92800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>113300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>122700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>131200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>44500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>56100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>63900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>47100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>49600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>58500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>65900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>56200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>61400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>13300</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K47" s="3">
         <v>12100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>15800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>19900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>20500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>8400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>8300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>7800</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>5</v>
       </c>
@@ -3675,102 +3885,114 @@
       <c r="AC47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="X48" s="3">
-        <v>1200</v>
       </c>
       <c r="Y48" s="3">
         <v>1300</v>
       </c>
       <c r="Z48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>1000</v>
       </c>
       <c r="AC48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3">
-        <v>1700</v>
-      </c>
       <c r="F49" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -3779,10 +4001,10 @@
         <v>1700</v>
       </c>
       <c r="I49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K49" s="3">
         <v>1800</v>
@@ -3791,28 +4013,28 @@
         <v>1800</v>
       </c>
       <c r="M49" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="N49" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
       </c>
       <c r="S49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T49" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>215900</v>
+        <v>146000</v>
       </c>
       <c r="E54" s="3">
-        <v>254600</v>
+        <v>182100</v>
       </c>
       <c r="F54" s="3">
-        <v>281000</v>
+        <v>217400</v>
       </c>
       <c r="G54" s="3">
-        <v>208100</v>
+        <v>256300</v>
       </c>
       <c r="H54" s="3">
-        <v>242400</v>
+        <v>282800</v>
       </c>
       <c r="I54" s="3">
+        <v>209500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>244100</v>
+      </c>
+      <c r="K54" s="3">
         <v>237300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>267100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>286300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>179400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>112000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>105000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>105800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>131200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>99900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>121400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>129800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>137400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>54300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>65900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>73100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>48400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>50900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>59700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>67000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>57200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>62500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,483 +4578,515 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>20500</v>
+        <v>17100</v>
       </c>
       <c r="E57" s="3">
-        <v>16200</v>
+        <v>21800</v>
       </c>
       <c r="F57" s="3">
-        <v>13700</v>
+        <v>20700</v>
       </c>
       <c r="G57" s="3">
-        <v>14600</v>
+        <v>16300</v>
       </c>
       <c r="H57" s="3">
-        <v>20300</v>
+        <v>13800</v>
       </c>
       <c r="I57" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K57" s="3">
         <v>14800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>17100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>12500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>8900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>9200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>7400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>11100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>8000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>6600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>6500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>6700</v>
       </c>
       <c r="F58" s="3">
-        <v>4400</v>
+        <v>6900</v>
       </c>
       <c r="G58" s="3">
-        <v>2800</v>
+        <v>6000</v>
       </c>
       <c r="H58" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3600</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>3400</v>
       </c>
       <c r="W58" s="3">
         <v>3400</v>
       </c>
       <c r="X58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z58" s="3">
         <v>3500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>2000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
         <v>10000</v>
       </c>
-      <c r="E59" s="3">
-        <v>21800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>37800</v>
-      </c>
       <c r="G59" s="3">
-        <v>44800</v>
+        <v>22000</v>
       </c>
       <c r="H59" s="3">
-        <v>47800</v>
+        <v>38100</v>
       </c>
       <c r="I59" s="3">
+        <v>45100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K59" s="3">
         <v>55800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>54600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>53900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>56200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>25300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>26900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>25500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>21300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>18500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>27300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>28800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37300</v>
+        <v>28100</v>
       </c>
       <c r="E60" s="3">
-        <v>44000</v>
+        <v>34100</v>
       </c>
       <c r="F60" s="3">
-        <v>56000</v>
+        <v>37600</v>
       </c>
       <c r="G60" s="3">
-        <v>62200</v>
+        <v>44300</v>
       </c>
       <c r="H60" s="3">
-        <v>69500</v>
+        <v>56400</v>
       </c>
       <c r="I60" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K60" s="3">
         <v>71400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>72300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>66200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>68400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>46900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>33700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>38200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>41100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>34000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>32500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>38700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>43600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>12200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>8800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>7200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>7500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>9800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12800</v>
+        <v>9900</v>
       </c>
       <c r="E61" s="3">
-        <v>14200</v>
+        <v>11400</v>
       </c>
       <c r="F61" s="3">
-        <v>15800</v>
+        <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>17200</v>
+        <v>14300</v>
       </c>
       <c r="H61" s="3">
-        <v>18800</v>
+        <v>15900</v>
       </c>
       <c r="I61" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>11300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>3900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>4200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>7800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>20800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>36700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>28900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>39300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>47900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>39400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>44400</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4807,17 +5099,23 @@
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51300</v>
+        <v>38800</v>
       </c>
       <c r="E66" s="3">
-        <v>59500</v>
+        <v>46500</v>
       </c>
       <c r="F66" s="3">
-        <v>73300</v>
+        <v>51600</v>
       </c>
       <c r="G66" s="3">
-        <v>81700</v>
+        <v>59900</v>
       </c>
       <c r="H66" s="3">
-        <v>96000</v>
+        <v>73800</v>
       </c>
       <c r="I66" s="3">
+        <v>82200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>96700</v>
+      </c>
+      <c r="K66" s="3">
         <v>93100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>104600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>107600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>105900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>63200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>62900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>71800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>86000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>73900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>81200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>79600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>90000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>14600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>13700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>13500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>13000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>13000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>14700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>11100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>11700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>11800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>164400</v>
+        <v>107000</v>
       </c>
       <c r="E72" s="3">
-        <v>199800</v>
+        <v>135300</v>
       </c>
       <c r="F72" s="3">
-        <v>216700</v>
+        <v>165500</v>
       </c>
       <c r="G72" s="3">
-        <v>138200</v>
+        <v>201200</v>
       </c>
       <c r="H72" s="3">
-        <v>151500</v>
+        <v>218200</v>
       </c>
       <c r="I72" s="3">
+        <v>139100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>152500</v>
+      </c>
+      <c r="K72" s="3">
         <v>150500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>165100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>176900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>70700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>46000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>39100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>31000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>42000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>36300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>46300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>43700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>30600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>43200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>51100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>34900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>37400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>44500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>55300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>45100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>50300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>164700</v>
+        <v>107200</v>
       </c>
       <c r="E76" s="3">
-        <v>195000</v>
+        <v>135600</v>
       </c>
       <c r="F76" s="3">
-        <v>207600</v>
+        <v>165800</v>
       </c>
       <c r="G76" s="3">
-        <v>126400</v>
+        <v>196300</v>
       </c>
       <c r="H76" s="3">
-        <v>146400</v>
+        <v>209000</v>
       </c>
       <c r="I76" s="3">
+        <v>127300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>147400</v>
+      </c>
+      <c r="K76" s="3">
         <v>144200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>162500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>178600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>73500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>48800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>42000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>34000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>45100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>26000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>50200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>47500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>39700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>52300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>59600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>35400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>37900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>45000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>55900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>45500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-36000</v>
+        <v>-31900</v>
       </c>
       <c r="E81" s="3">
-        <v>-17800</v>
+        <v>-34700</v>
       </c>
       <c r="F81" s="3">
-        <v>-20900</v>
+        <v>-36300</v>
       </c>
       <c r="G81" s="3">
         <v>-17900</v>
       </c>
       <c r="H81" s="3">
-        <v>-24900</v>
+        <v>-21000</v>
       </c>
       <c r="I81" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-18400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-6200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-12700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-12700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-12700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-13300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-8900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-9000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-7200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-8900</v>
       </c>
       <c r="AA81" s="3">
         <v>-9100</v>
       </c>
       <c r="AB81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-12100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,19 +6607,21 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>300</v>
+      </c>
+      <c r="F83" s="3">
         <v>2000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -6232,19 +6630,19 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -6262,13 +6660,13 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33300</v>
+        <v>-36100</v>
       </c>
       <c r="E89" s="3">
-        <v>-20500</v>
+        <v>-36000</v>
       </c>
       <c r="F89" s="3">
-        <v>-28500</v>
+        <v>-33600</v>
       </c>
       <c r="G89" s="3">
-        <v>-30600</v>
+        <v>-20600</v>
       </c>
       <c r="H89" s="3">
-        <v>-29800</v>
+        <v>-28700</v>
       </c>
       <c r="I89" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-18700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-17000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-15600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-18100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-13600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-15700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>88000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-10800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-9100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-7600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-5500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-6600</v>
       </c>
       <c r="AA89" s="3">
         <v>-8500</v>
       </c>
       <c r="AB89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-7700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-10100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Y91" s="3">
         <v>-200</v>
       </c>
       <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="F94" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2500</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>7500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>4100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>8000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>9200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>8900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-20800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-17900</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
       </c>
       <c r="X94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z94" s="3">
         <v>9300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>5200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>5400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
-        <v>96700</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>97300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>29500</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>29700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>111300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>38900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>32800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>24900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>2800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>19300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>1000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3400</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
-        <v>3200</v>
+        <v>-600</v>
       </c>
       <c r="F101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>300</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-1000</v>
       </c>
       <c r="U101" s="3">
         <v>300</v>
       </c>
       <c r="V101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>300</v>
+      </c>
+      <c r="X101" s="3">
         <v>1400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35100</v>
+        <v>-38800</v>
       </c>
       <c r="E102" s="3">
-        <v>-15400</v>
+        <v>-37300</v>
       </c>
       <c r="F102" s="3">
-        <v>72600</v>
+        <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>-29900</v>
+        <v>-15500</v>
       </c>
       <c r="H102" s="3">
+        <v>73000</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-25800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-19400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>99300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>58400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-13600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>41100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-37300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>68300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-11400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-8800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>17000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>7300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>16000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-5800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFMD_QTR_FIN.xlsx
@@ -799,7 +799,7 @@
         <v>4900</v>
       </c>
       <c r="F8" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="G8" s="3">
         <v>16200</v>
@@ -1479,13 +1479,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="E17" s="3">
         <v>39000</v>
       </c>
       <c r="F17" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="G17" s="3">
         <v>37000</v>
@@ -1690,13 +1690,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
         <v>-600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
         <v>3400</v>
@@ -1779,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31000</v>
+        <v>-31100</v>
       </c>
       <c r="E21" s="3">
         <v>-34400</v>
@@ -1788,10 +1788,10 @@
         <v>-33800</v>
       </c>
       <c r="G21" s="3">
-        <v>-17000</v>
+        <v>-17100</v>
       </c>
       <c r="H21" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="I21" s="3">
         <v>-17300</v>
@@ -1969,13 +1969,13 @@
         <v>-17900</v>
       </c>
       <c r="H23" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I23" s="3">
         <v>-18100</v>
       </c>
       <c r="J23" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K23" s="3">
         <v>-18400</v>
@@ -2236,13 +2236,13 @@
         <v>-17900</v>
       </c>
       <c r="H26" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I26" s="3">
         <v>-18100</v>
       </c>
       <c r="J26" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K26" s="3">
         <v>-18400</v>
@@ -2325,13 +2325,13 @@
         <v>-17900</v>
       </c>
       <c r="H27" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I27" s="3">
         <v>-18100</v>
       </c>
       <c r="J27" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K27" s="3">
         <v>-18400</v>
@@ -2758,13 +2758,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
         <v>600</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
         <v>-3400</v>
@@ -2859,13 +2859,13 @@
         <v>-17900</v>
       </c>
       <c r="H33" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I33" s="3">
         <v>-18100</v>
       </c>
       <c r="J33" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K33" s="3">
         <v>-18400</v>
@@ -3037,13 +3037,13 @@
         <v>-17900</v>
       </c>
       <c r="H35" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I35" s="3">
         <v>-18100</v>
       </c>
       <c r="J35" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K35" s="3">
         <v>-18400</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130200</v>
+        <v>130300</v>
       </c>
       <c r="E41" s="3">
-        <v>169000</v>
+        <v>169100</v>
       </c>
       <c r="F41" s="3">
-        <v>206300</v>
+        <v>206500</v>
       </c>
       <c r="G41" s="3">
-        <v>241600</v>
+        <v>241800</v>
       </c>
       <c r="H41" s="3">
-        <v>257200</v>
+        <v>257400</v>
       </c>
       <c r="I41" s="3">
-        <v>184100</v>
+        <v>184300</v>
       </c>
       <c r="J41" s="3">
-        <v>214300</v>
+        <v>214400</v>
       </c>
       <c r="K41" s="3">
         <v>214000</v>
@@ -3719,25 +3719,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>141800</v>
+        <v>142000</v>
       </c>
       <c r="E46" s="3">
-        <v>177600</v>
+        <v>177700</v>
       </c>
       <c r="F46" s="3">
-        <v>212600</v>
+        <v>212700</v>
       </c>
       <c r="G46" s="3">
-        <v>249900</v>
+        <v>250100</v>
       </c>
       <c r="H46" s="3">
-        <v>276200</v>
+        <v>276400</v>
       </c>
       <c r="I46" s="3">
-        <v>196100</v>
+        <v>196300</v>
       </c>
       <c r="J46" s="3">
-        <v>223800</v>
+        <v>223900</v>
       </c>
       <c r="K46" s="3">
         <v>218900</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146000</v>
+        <v>146200</v>
       </c>
       <c r="E54" s="3">
-        <v>182100</v>
+        <v>182200</v>
       </c>
       <c r="F54" s="3">
-        <v>217400</v>
+        <v>217600</v>
       </c>
       <c r="G54" s="3">
-        <v>256300</v>
+        <v>256500</v>
       </c>
       <c r="H54" s="3">
-        <v>282800</v>
+        <v>283100</v>
       </c>
       <c r="I54" s="3">
-        <v>209500</v>
+        <v>209700</v>
       </c>
       <c r="J54" s="3">
-        <v>244100</v>
+        <v>244300</v>
       </c>
       <c r="K54" s="3">
         <v>237300</v>
@@ -4586,16 +4586,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="E57" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="F57" s="3">
         <v>20700</v>
       </c>
       <c r="G57" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="H57" s="3">
         <v>13800</v>
@@ -4604,7 +4604,7 @@
         <v>14700</v>
       </c>
       <c r="J57" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="K57" s="3">
         <v>14800</v>
@@ -4779,7 +4779,7 @@
         <v>38100</v>
       </c>
       <c r="I59" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="J59" s="3">
         <v>48200</v>
@@ -4951,13 +4951,13 @@
         <v>12900</v>
       </c>
       <c r="G61" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="H61" s="3">
         <v>15900</v>
       </c>
       <c r="I61" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J61" s="3">
         <v>18900</v>
@@ -5396,16 +5396,16 @@
         <v>51600</v>
       </c>
       <c r="G66" s="3">
-        <v>59900</v>
+        <v>60000</v>
       </c>
       <c r="H66" s="3">
-        <v>73800</v>
+        <v>73900</v>
       </c>
       <c r="I66" s="3">
-        <v>82200</v>
+        <v>82300</v>
       </c>
       <c r="J66" s="3">
-        <v>96700</v>
+        <v>96800</v>
       </c>
       <c r="K66" s="3">
         <v>93100</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>107000</v>
+        <v>107100</v>
       </c>
       <c r="E72" s="3">
-        <v>135300</v>
+        <v>135400</v>
       </c>
       <c r="F72" s="3">
-        <v>165500</v>
+        <v>165600</v>
       </c>
       <c r="G72" s="3">
-        <v>201200</v>
+        <v>201300</v>
       </c>
       <c r="H72" s="3">
-        <v>218200</v>
+        <v>218400</v>
       </c>
       <c r="I72" s="3">
-        <v>139100</v>
+        <v>139200</v>
       </c>
       <c r="J72" s="3">
-        <v>152500</v>
+        <v>152600</v>
       </c>
       <c r="K72" s="3">
         <v>150500</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107200</v>
+        <v>107300</v>
       </c>
       <c r="E76" s="3">
-        <v>135600</v>
+        <v>135700</v>
       </c>
       <c r="F76" s="3">
-        <v>165800</v>
+        <v>165900</v>
       </c>
       <c r="G76" s="3">
-        <v>196300</v>
+        <v>196500</v>
       </c>
       <c r="H76" s="3">
-        <v>209000</v>
+        <v>209200</v>
       </c>
       <c r="I76" s="3">
-        <v>127300</v>
+        <v>127400</v>
       </c>
       <c r="J76" s="3">
-        <v>147400</v>
+        <v>147500</v>
       </c>
       <c r="K76" s="3">
         <v>144200</v>
@@ -6505,13 +6505,13 @@
         <v>-17900</v>
       </c>
       <c r="H81" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="I81" s="3">
         <v>-18100</v>
       </c>
       <c r="J81" s="3">
-        <v>-25000</v>
+        <v>-25100</v>
       </c>
       <c r="K81" s="3">
         <v>-18400</v>
@@ -7149,10 +7149,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-36000</v>
       </c>
       <c r="F89" s="3">
         <v>-33600</v>
@@ -8028,13 +8028,13 @@
         <v>-500</v>
       </c>
       <c r="H100" s="3">
-        <v>97300</v>
+        <v>97400</v>
       </c>
       <c r="I100" s="3">
         <v>-200</v>
       </c>
       <c r="J100" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -8197,16 +8197,16 @@
         <v>-38800</v>
       </c>
       <c r="E102" s="3">
-        <v>-37300</v>
+        <v>-37400</v>
       </c>
       <c r="F102" s="3">
         <v>-35400</v>
       </c>
       <c r="G102" s="3">
-        <v>-15500</v>
+        <v>-15600</v>
       </c>
       <c r="H102" s="3">
-        <v>73000</v>
+        <v>73100</v>
       </c>
       <c r="I102" s="3">
         <v>-30100</v>
